--- a/syncronisation/Cash flow.xlsx
+++ b/syncronisation/Cash flow.xlsx
@@ -37,21 +37,27 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">'Project 30'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">'Project 30'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Project 30'!$B$1:$B$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Project 30'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">'Project 31'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">'Project 31'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Project 31'!$B$1:$B$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Project 31'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Actual 6'!$B$5:$B$521</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Actual 6'!$B$5:$B$521</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Apartment!$A$1:$C$451</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Borrowing!$A$1:$K$19</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">'Project 32'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">'Project 32'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Project 32'!$B$1:$B$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Project 32'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0" vbProcedure="false">'Project 33'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0" vbProcedure="false">'Project 33'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Project 33'!$B$1:$B$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Project 33'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0" vbProcedure="false">'Project 34'!$B$1:$B$12</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0" vbProcedure="false">'Project 34'!$B$1:$B$12</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Project 34'!$B$1:$B$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Project 34'!$B$1:$B$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1510,7 +1516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="348">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -2460,13 +2466,19 @@
     <t xml:space="preserve">State registration insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Transport for materials</t>
+    <t xml:space="preserve">Public transport for materials</t>
   </si>
   <si>
     <t xml:space="preserve">Construction materials for the shower room</t>
   </si>
   <si>
     <t xml:space="preserve">Tales for the shower room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wash-bowl, mirror, stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosaic the shower room, shower</t>
   </si>
   <si>
     <t xml:space="preserve">Borrowed</t>
@@ -2554,7 +2566,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="14">
+  <numFmts count="13">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* \-??_р_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
@@ -2565,10 +2577,9 @@
     <numFmt numFmtId="171" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * \-??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* \-??_ ;_-@_ "/>
     <numFmt numFmtId="173" formatCode="#,##0.00"/>
-    <numFmt numFmtId="174" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="175" formatCode="MM/DD/YY"/>
-    <numFmt numFmtId="176" formatCode="0.00"/>
-    <numFmt numFmtId="177" formatCode="#,##0_ ;[RED]\-#,##0\ "/>
+    <numFmt numFmtId="174" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="175" formatCode="0.00"/>
+    <numFmt numFmtId="176" formatCode="#,##0_ ;[RED]\-#,##0\ "/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -2669,7 +2680,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2698,12 +2709,8 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2856,15 +2863,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2872,7 +2871,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2880,15 +2879,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2896,23 +2891,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
@@ -2989,9 +2983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361440</xdr:colOff>
+      <xdr:colOff>361080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3001,7 +2995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12733920" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3034,9 +3028,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361440</xdr:colOff>
+      <xdr:colOff>361080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3046,7 +3040,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12733920" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3079,9 +3073,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361440</xdr:colOff>
+      <xdr:colOff>361080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3091,7 +3085,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12733920" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3124,9 +3118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361440</xdr:colOff>
+      <xdr:colOff>361080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3136,7 +3130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12733920" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3169,9 +3163,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361440</xdr:colOff>
+      <xdr:colOff>361080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3181,7 +3175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12733920" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3231,9 +3225,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399600</xdr:colOff>
+      <xdr:colOff>399240</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3237,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12648600" cy="9524520"/>
+          <a:ext cx="12724560" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3276,9 +3270,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399600</xdr:colOff>
+      <xdr:colOff>399240</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3288,7 +3282,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12648600" cy="9524520"/>
+          <a:ext cx="12724560" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3321,9 +3315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399600</xdr:colOff>
+      <xdr:colOff>399240</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3333,7 +3327,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12648600" cy="9524520"/>
+          <a:ext cx="12724560" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3366,9 +3360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399600</xdr:colOff>
+      <xdr:colOff>399240</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3378,7 +3372,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12648600" cy="9524520"/>
+          <a:ext cx="12724560" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3411,9 +3405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399600</xdr:colOff>
+      <xdr:colOff>399240</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3423,7 +3417,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12648600" cy="9524520"/>
+          <a:ext cx="12724560" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3456,9 +3450,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399600</xdr:colOff>
+      <xdr:colOff>399240</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3468,7 +3462,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12648600" cy="9524520"/>
+          <a:ext cx="12724560" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3501,9 +3495,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399600</xdr:colOff>
+      <xdr:colOff>399240</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3513,7 +3507,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12648600" cy="9524520"/>
+          <a:ext cx="12724560" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3551,9 +3545,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>428400</xdr:colOff>
+      <xdr:colOff>428040</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3563,7 +3557,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12639240" cy="9524520"/>
+          <a:ext cx="12724560" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3601,9 +3595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>256320</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3613,7 +3607,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12696120" cy="9524520"/>
+          <a:ext cx="12753000" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3646,9 +3640,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>256320</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3658,7 +3652,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12696120" cy="9524520"/>
+          <a:ext cx="12753000" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3691,9 +3685,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>256320</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3703,7 +3697,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12696120" cy="9524520"/>
+          <a:ext cx="12753000" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3741,9 +3735,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>56880</xdr:colOff>
+      <xdr:colOff>56520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3753,7 +3747,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12763080" cy="9524520"/>
+          <a:ext cx="12810240" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3791,9 +3785,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>361440</xdr:colOff>
+      <xdr:colOff>361080</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3803,7 +3797,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12648600" cy="9524520"/>
+          <a:ext cx="12676680" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3836,9 +3830,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>361440</xdr:colOff>
+      <xdr:colOff>361080</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3848,7 +3842,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12648600" cy="9524520"/>
+          <a:ext cx="12676680" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3881,9 +3875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>361440</xdr:colOff>
+      <xdr:colOff>361080</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3893,7 +3887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12648600" cy="9524520"/>
+          <a:ext cx="12676680" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3939,9 +3933,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>761400</xdr:colOff>
+      <xdr:colOff>761040</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3951,7 +3945,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12048480" cy="10095840"/>
+          <a:ext cx="12076560" cy="10095480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3984,9 +3978,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>761400</xdr:colOff>
+      <xdr:colOff>761040</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3996,7 +3990,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12048480" cy="10095840"/>
+          <a:ext cx="12076560" cy="10095480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4039,10 +4033,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.497975708502"/>
@@ -8711,20 +8705,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="44" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="41" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.8178137651822"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
-        <v>319</v>
+      <c r="A1" s="42" t="s">
+        <v>321</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>287</v>
@@ -8733,12 +8727,12 @@
         <v>291</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E1" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="43" t="s">
         <v>289</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -8751,10 +8745,10 @@
         <v>292</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8772,9 +8766,9 @@
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K2" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K2" s="5" t="n">
         <v>43071</v>
       </c>
     </row>
@@ -8795,9 +8789,9 @@
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="K3" s="38" t="n">
+        <v>326</v>
+      </c>
+      <c r="K3" s="5" t="n">
         <v>42959</v>
       </c>
     </row>
@@ -8818,9 +8812,9 @@
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="K4" s="38" t="n">
+        <v>326</v>
+      </c>
+      <c r="K4" s="5" t="n">
         <v>42959</v>
       </c>
     </row>
@@ -8839,9 +8833,9 @@
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K5" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K5" s="5" t="n">
         <v>43071</v>
       </c>
     </row>
@@ -8860,9 +8854,9 @@
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K6" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K6" s="5" t="n">
         <v>43071</v>
       </c>
     </row>
@@ -8875,10 +8869,10 @@
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
-      <c r="E7" s="44" t="n">
+      <c r="E7" s="41" t="n">
         <v>59.59</v>
       </c>
-      <c r="F7" s="44" t="n">
+      <c r="F7" s="41" t="n">
         <v>69.85</v>
       </c>
       <c r="G7" s="1" t="n">
@@ -8894,9 +8888,9 @@
         <v>155.488657100062</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K7" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K7" s="5" t="n">
         <v>43071</v>
       </c>
     </row>
@@ -8907,10 +8901,10 @@
       <c r="B8" s="30" t="n">
         <v>10000</v>
       </c>
-      <c r="E8" s="44" t="n">
+      <c r="E8" s="41" t="n">
         <v>58.94</v>
       </c>
-      <c r="F8" s="44" t="n">
+      <c r="F8" s="41" t="n">
         <v>69.31</v>
       </c>
       <c r="G8" s="1" t="n">
@@ -8926,9 +8920,9 @@
         <v>156.971694961881</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K8" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K8" s="5" t="n">
         <v>43071</v>
       </c>
     </row>
@@ -8939,10 +8933,10 @@
       <c r="B9" s="30" t="n">
         <v>30000</v>
       </c>
-      <c r="E9" s="44" t="n">
+      <c r="E9" s="41" t="n">
         <v>58.41</v>
       </c>
-      <c r="F9" s="44" t="n">
+      <c r="F9" s="41" t="n">
         <v>69.17</v>
       </c>
       <c r="G9" s="1" t="n">
@@ -8958,9 +8952,9 @@
         <v>473.662360489951</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K9" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K9" s="5" t="n">
         <v>43071</v>
       </c>
     </row>
@@ -8971,10 +8965,10 @@
       <c r="B10" s="30" t="n">
         <v>8966</v>
       </c>
-      <c r="E10" s="44" t="n">
+      <c r="E10" s="41" t="n">
         <v>56.99</v>
       </c>
-      <c r="F10" s="44" t="n">
+      <c r="F10" s="41" t="n">
         <v>68.35</v>
       </c>
       <c r="G10" s="1" t="n">
@@ -8990,9 +8984,9 @@
         <v>144.251804080671</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K10" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K10" s="5" t="n">
         <v>43071</v>
       </c>
     </row>
@@ -9003,10 +8997,10 @@
       <c r="B11" s="30" t="n">
         <v>230</v>
       </c>
-      <c r="E11" s="44" t="n">
+      <c r="E11" s="41" t="n">
         <v>56.99</v>
       </c>
-      <c r="F11" s="44" t="n">
+      <c r="F11" s="41" t="n">
         <v>68.35</v>
       </c>
       <c r="G11" s="1" t="n">
@@ -9022,9 +9016,9 @@
         <v>3.70041433622064</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K11" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K11" s="5" t="n">
         <v>43071</v>
       </c>
     </row>
@@ -9035,10 +9029,10 @@
       <c r="B12" s="30" t="n">
         <v>30000</v>
       </c>
-      <c r="E12" s="44" t="n">
+      <c r="E12" s="41" t="n">
         <v>57.6</v>
       </c>
-      <c r="F12" s="44" t="n">
+      <c r="F12" s="41" t="n">
         <v>68.8</v>
       </c>
       <c r="G12" s="1" t="n">
@@ -9054,9 +9048,9 @@
         <v>478.43992248062</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K12" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K12" s="5" t="n">
         <v>43071</v>
       </c>
     </row>
@@ -9067,11 +9061,11 @@
       <c r="B13" s="30" t="n">
         <v>30000</v>
       </c>
-      <c r="E13" s="44" t="n">
+      <c r="E13" s="41" t="n">
         <f aca="false">E14</f>
         <v>58.38</v>
       </c>
-      <c r="F13" s="44" t="n">
+      <c r="F13" s="41" t="n">
         <f aca="false">F14</f>
         <v>68.15</v>
       </c>
@@ -9088,7 +9082,7 @@
         <v>477.040021897166</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9098,10 +9092,10 @@
       <c r="B14" s="30" t="n">
         <v>1000</v>
       </c>
-      <c r="E14" s="44" t="n">
+      <c r="E14" s="41" t="n">
         <v>58.38</v>
       </c>
-      <c r="F14" s="44" t="n">
+      <c r="F14" s="41" t="n">
         <v>68.15</v>
       </c>
       <c r="G14" s="1" t="n">
@@ -9117,9 +9111,9 @@
         <v>15.9013340632389</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K14" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K14" s="5" t="n">
         <v>43071</v>
       </c>
     </row>
@@ -9130,10 +9124,10 @@
       <c r="B15" s="30" t="n">
         <v>30000</v>
       </c>
-      <c r="E15" s="44" t="n">
+      <c r="E15" s="41" t="n">
         <v>58.19</v>
       </c>
-      <c r="F15" s="44" t="n">
+      <c r="F15" s="41" t="n">
         <v>67.88</v>
       </c>
       <c r="G15" s="1" t="n">
@@ -9149,9 +9143,9 @@
         <v>478.754447032728</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K15" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K15" s="5" t="n">
         <v>43071</v>
       </c>
     </row>
@@ -9162,10 +9156,10 @@
       <c r="B16" s="30" t="n">
         <v>300</v>
       </c>
-      <c r="E16" s="44" t="n">
+      <c r="E16" s="41" t="n">
         <v>59.05</v>
       </c>
-      <c r="F16" s="44" t="n">
+      <c r="F16" s="41" t="n">
         <v>68.62</v>
       </c>
       <c r="G16" s="1" t="n">
@@ -9181,9 +9175,9 @@
         <v>4.72617177001741</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K16" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K16" s="5" t="n">
         <v>43071</v>
       </c>
     </row>
@@ -9194,10 +9188,10 @@
       <c r="B17" s="30" t="n">
         <v>30000</v>
       </c>
-      <c r="E17" s="44" t="n">
+      <c r="E17" s="41" t="n">
         <v>59.05</v>
       </c>
-      <c r="F17" s="44" t="n">
+      <c r="F17" s="41" t="n">
         <v>68.62</v>
       </c>
       <c r="G17" s="1" t="n">
@@ -9213,7 +9207,7 @@
         <v>472.617177001741</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9223,10 +9217,10 @@
       <c r="B18" s="30" t="n">
         <v>1100</v>
       </c>
-      <c r="E18" s="44" t="n">
+      <c r="E18" s="41" t="n">
         <v>58.89</v>
       </c>
-      <c r="F18" s="44" t="n">
+      <c r="F18" s="41" t="n">
         <v>70.06</v>
       </c>
       <c r="G18" s="1" t="n">
@@ -9242,9 +9236,9 @@
         <v>17.1898603564555</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K18" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K18" s="5" t="n">
         <v>43071</v>
       </c>
     </row>
@@ -9256,10 +9250,10 @@
         <f aca="false">SUM(B2,B5,B6,B7,B8,B9,B10,B11,B12,B14,B15,B16,B18) - 140000</f>
         <v>25596</v>
       </c>
-      <c r="E19" s="44" t="n">
+      <c r="E19" s="41" t="n">
         <v>58.89</v>
       </c>
-      <c r="F19" s="44" t="n">
+      <c r="F19" s="41" t="n">
         <v>70.06</v>
       </c>
       <c r="G19" s="1" t="n">
@@ -9275,9 +9269,9 @@
         <v>399.992423348941</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K19" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K19" s="5" t="n">
         <v>43119</v>
       </c>
     </row>
@@ -9288,10 +9282,10 @@
       <c r="B20" s="30" t="n">
         <v>30000</v>
       </c>
-      <c r="E20" s="44" t="n">
+      <c r="E20" s="41" t="n">
         <v>58.76</v>
       </c>
-      <c r="F20" s="44" t="n">
+      <c r="F20" s="41" t="n">
         <v>69.61</v>
       </c>
       <c r="G20" s="1" t="n">
@@ -9307,9 +9301,9 @@
         <v>470.761978460369</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K20" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K20" s="5" t="n">
         <v>43119</v>
       </c>
     </row>
@@ -9320,10 +9314,10 @@
       <c r="B21" s="30" t="n">
         <v>750</v>
       </c>
-      <c r="E21" s="44" t="n">
+      <c r="E21" s="41" t="n">
         <v>59.27</v>
       </c>
-      <c r="F21" s="44" t="n">
+      <c r="F21" s="41" t="n">
         <v>69.61</v>
       </c>
       <c r="G21" s="1" t="n">
@@ -9339,9 +9333,9 @@
         <v>11.7141352528647</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K21" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K21" s="5" t="n">
         <v>43119</v>
       </c>
     </row>
@@ -9352,10 +9346,10 @@
       <c r="B22" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="E22" s="44" t="n">
+      <c r="E22" s="41" t="n">
         <v>57.38</v>
       </c>
-      <c r="F22" s="44" t="n">
+      <c r="F22" s="41" t="n">
         <v>69.23</v>
       </c>
       <c r="G22" s="1" t="n">
@@ -9371,9 +9365,9 @@
         <v>7.96807002204753</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="K22" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="K22" s="5" t="n">
         <v>43119</v>
       </c>
     </row>
@@ -9385,7 +9379,7 @@
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
-      <c r="K23" s="38"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -9394,10 +9388,10 @@
       <c r="B24" s="30" t="n">
         <v>50000</v>
       </c>
-      <c r="E24" s="44" t="n">
+      <c r="E24" s="41" t="n">
         <v>56.42</v>
       </c>
-      <c r="F24" s="44" t="n">
+      <c r="F24" s="41" t="n">
         <v>69.57</v>
       </c>
       <c r="G24" s="1" t="n">
@@ -9413,7 +9407,7 @@
         <v>802.455576482201</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9423,10 +9417,10 @@
       <c r="B25" s="30" t="n">
         <v>5050</v>
       </c>
-      <c r="E25" s="44" t="n">
+      <c r="E25" s="41" t="n">
         <v>62.13</v>
       </c>
-      <c r="F25" s="44" t="n">
+      <c r="F25" s="41" t="n">
         <v>75.47</v>
       </c>
       <c r="G25" s="1" t="n">
@@ -9442,7 +9436,7 @@
         <v>74.0975950890168</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9452,10 +9446,10 @@
       <c r="B26" s="30" t="n">
         <v>5075</v>
       </c>
-      <c r="E26" s="44" t="n">
+      <c r="E26" s="41" t="n">
         <v>63.79</v>
       </c>
-      <c r="F26" s="44" t="n">
+      <c r="F26" s="41" t="n">
         <v>76.4</v>
       </c>
       <c r="G26" s="1" t="n">
@@ -9471,7 +9465,7 @@
         <v>72.992313005124</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9482,10 +9476,10 @@
         <f aca="false">30182 + 30182 * 0.01</f>
         <v>30483.82</v>
       </c>
-      <c r="E27" s="44" t="n">
+      <c r="E27" s="41" t="n">
         <v>61.64</v>
       </c>
-      <c r="F27" s="44" t="n">
+      <c r="F27" s="41" t="n">
         <v>73.55</v>
       </c>
       <c r="G27" s="1" t="n">
@@ -9501,7 +9495,7 @@
         <v>454.504988042673</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9511,10 +9505,10 @@
       <c r="B28" s="30" t="n">
         <v>1200</v>
       </c>
-      <c r="E28" s="44" t="n">
+      <c r="E28" s="41" t="n">
         <v>61.64</v>
       </c>
-      <c r="F28" s="44" t="n">
+      <c r="F28" s="41" t="n">
         <v>73.55</v>
       </c>
       <c r="G28" s="1" t="n">
@@ -9530,7 +9524,7 @@
         <v>17.8916548402139</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9540,10 +9534,10 @@
       <c r="B29" s="30" t="n">
         <v>100</v>
       </c>
-      <c r="E29" s="44" t="n">
+      <c r="E29" s="41" t="n">
         <v>61.64</v>
       </c>
-      <c r="F29" s="44" t="n">
+      <c r="F29" s="41" t="n">
         <v>73.55</v>
       </c>
       <c r="G29" s="1" t="n">
@@ -9559,7 +9553,7 @@
         <v>1.49097123668449</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9570,10 +9564,10 @@
         <f aca="false">10000 * 1.01</f>
         <v>10100</v>
       </c>
-      <c r="E30" s="44" t="n">
+      <c r="E30" s="41" t="n">
         <v>61.63</v>
       </c>
-      <c r="F30" s="44" t="n">
+      <c r="F30" s="41" t="n">
         <v>72.54</v>
       </c>
       <c r="G30" s="1" t="n">
@@ -9589,7 +9583,7 @@
         <v>151.557376502811</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9600,10 +9594,10 @@
         <f aca="false">1000 + 30</f>
         <v>1030</v>
       </c>
-      <c r="E31" s="44" t="n">
+      <c r="E31" s="41" t="n">
         <v>62.3</v>
       </c>
-      <c r="F31" s="44" t="n">
+      <c r="F31" s="41" t="n">
         <v>72.69</v>
       </c>
       <c r="G31" s="1" t="n">
@@ -9619,7 +9613,7 @@
         <v>15.3513336499884</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9630,10 +9624,10 @@
         <f aca="false">300 + 30</f>
         <v>330</v>
       </c>
-      <c r="E32" s="44" t="n">
+      <c r="E32" s="41" t="n">
         <v>61.96</v>
       </c>
-      <c r="F32" s="44" t="n">
+      <c r="F32" s="41" t="n">
         <v>72.72</v>
       </c>
       <c r="G32" s="1" t="n">
@@ -9649,7 +9643,7 @@
         <v>4.93198529020107</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9659,10 +9653,10 @@
       <c r="B33" s="30" t="n">
         <v>900</v>
       </c>
-      <c r="E33" s="44" t="n">
+      <c r="E33" s="41" t="n">
         <v>62.33</v>
       </c>
-      <c r="F33" s="44" t="n">
+      <c r="F33" s="41" t="n">
         <v>73.43</v>
       </c>
       <c r="G33" s="1" t="n">
@@ -9678,7 +9672,7 @@
         <v>13.3479228556829</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9689,10 +9683,10 @@
         <f aca="false">200 + 100</f>
         <v>300</v>
       </c>
-      <c r="E34" s="44" t="n">
+      <c r="E34" s="41" t="n">
         <v>62.89</v>
       </c>
-      <c r="F34" s="44" t="n">
+      <c r="F34" s="41" t="n">
         <v>73.33</v>
       </c>
       <c r="G34" s="1" t="n">
@@ -9708,7 +9702,7 @@
         <v>4.43066439561416</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9718,10 +9712,10 @@
       <c r="B35" s="30" t="n">
         <v>6000</v>
       </c>
-      <c r="E35" s="44" t="n">
+      <c r="E35" s="41" t="n">
         <v>62.89</v>
       </c>
-      <c r="F35" s="44" t="n">
+      <c r="F35" s="41" t="n">
         <v>73.33</v>
       </c>
       <c r="G35" s="1" t="n">
@@ -9737,7 +9731,7 @@
         <v>88.6132879122832</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9747,10 +9741,10 @@
       <c r="B36" s="30" t="n">
         <v>1000</v>
       </c>
-      <c r="E36" s="44" t="n">
+      <c r="E36" s="41" t="n">
         <v>62.98</v>
       </c>
-      <c r="F36" s="44" t="n">
+      <c r="F36" s="41" t="n">
         <v>73.48</v>
       </c>
       <c r="G36" s="1" t="n">
@@ -9766,7 +9760,7 @@
         <v>14.7436009357768</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9776,10 +9770,10 @@
       <c r="B37" s="30" t="n">
         <v>1000</v>
       </c>
-      <c r="E37" s="44" t="n">
+      <c r="E37" s="41" t="n">
         <v>63.14</v>
       </c>
-      <c r="F37" s="44" t="n">
+      <c r="F37" s="41" t="n">
         <v>73.68</v>
       </c>
       <c r="G37" s="1" t="n">
@@ -9795,7 +9789,7 @@
         <v>14.7050124209098</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9805,10 +9799,10 @@
       <c r="B38" s="30" t="n">
         <v>2157</v>
       </c>
-      <c r="E38" s="44" t="n">
+      <c r="E38" s="41" t="n">
         <v>62.81</v>
       </c>
-      <c r="F38" s="44" t="n">
+      <c r="F38" s="41" t="n">
         <v>73.51</v>
       </c>
       <c r="G38" s="1" t="n">
@@ -9824,7 +9818,7 @@
         <v>31.8423059389</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9834,10 +9828,10 @@
       <c r="B39" s="30" t="n">
         <v>2000</v>
       </c>
-      <c r="E39" s="44" t="n">
+      <c r="E39" s="41" t="n">
         <v>62.79</v>
       </c>
-      <c r="F39" s="44" t="n">
+      <c r="F39" s="41" t="n">
         <v>73.48</v>
       </c>
       <c r="G39" s="1" t="n">
@@ -9853,7 +9847,7 @@
         <v>29.5352482282969</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9863,10 +9857,10 @@
       <c r="B40" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="E40" s="44" t="n">
+      <c r="E40" s="41" t="n">
         <v>63.25</v>
       </c>
-      <c r="F40" s="44" t="n">
+      <c r="F40" s="41" t="n">
         <v>76.61</v>
       </c>
       <c r="G40" s="1" t="n">
@@ -9882,7 +9876,7 @@
         <v>7.21585072589312</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9892,10 +9886,10 @@
       <c r="B41" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="E41" s="44" t="n">
+      <c r="E41" s="41" t="n">
         <v>63.07</v>
       </c>
-      <c r="F41" s="44" t="n">
+      <c r="F41" s="41" t="n">
         <v>73.73</v>
       </c>
       <c r="G41" s="1" t="n">
@@ -9911,7 +9905,7 @@
         <v>7.35459972472722</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9921,10 +9915,10 @@
       <c r="B42" s="30" t="n">
         <v>4500</v>
       </c>
-      <c r="E42" s="44" t="n">
+      <c r="E42" s="41" t="n">
         <v>63.01</v>
       </c>
-      <c r="F42" s="44" t="n">
+      <c r="F42" s="41" t="n">
         <v>73.98</v>
       </c>
       <c r="G42" s="1" t="n">
@@ -9940,7 +9934,7 @@
         <v>66.1222429838696</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9950,10 +9944,10 @@
       <c r="B43" s="30" t="n">
         <v>300</v>
       </c>
-      <c r="E43" s="44" t="n">
+      <c r="E43" s="41" t="n">
         <v>62.94</v>
       </c>
-      <c r="F43" s="44" t="n">
+      <c r="F43" s="41" t="n">
         <v>73.99</v>
       </c>
       <c r="G43" s="1" t="n">
@@ -9969,7 +9963,7 @@
         <v>4.41052310292105</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9979,10 +9973,10 @@
       <c r="B44" s="30" t="n">
         <v>1700</v>
       </c>
-      <c r="E44" s="44" t="n">
+      <c r="E44" s="41" t="n">
         <v>63.47</v>
       </c>
-      <c r="F44" s="44" t="n">
+      <c r="F44" s="41" t="n">
         <v>74.46</v>
       </c>
       <c r="G44" s="1" t="n">
@@ -9998,7 +9992,7 @@
         <v>24.8076788875915</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10008,10 +10002,10 @@
       <c r="B45" s="30" t="n">
         <v>1000</v>
       </c>
-      <c r="E45" s="44" t="n">
+      <c r="E45" s="41" t="n">
         <v>63.44</v>
       </c>
-      <c r="F45" s="44" t="n">
+      <c r="F45" s="41" t="n">
         <v>73.44</v>
       </c>
       <c r="G45" s="1" t="n">
@@ -10027,7 +10021,7 @@
         <v>14.689741666598</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10037,10 +10031,10 @@
       <c r="B46" s="30" t="n">
         <v>6000</v>
       </c>
-      <c r="E46" s="44" t="n">
+      <c r="E46" s="41" t="n">
         <v>67.4</v>
       </c>
-      <c r="F46" s="44" t="n">
+      <c r="F46" s="41" t="n">
         <v>77.96</v>
       </c>
       <c r="G46" s="1" t="n">
@@ -10056,7 +10050,7 @@
         <v>82.9916582040855</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10066,10 +10060,10 @@
       <c r="B47" s="30" t="n">
         <v>303</v>
       </c>
-      <c r="E47" s="44" t="n">
+      <c r="E47" s="41" t="n">
         <v>67.52</v>
       </c>
-      <c r="F47" s="44" t="n">
+      <c r="F47" s="41" t="n">
         <v>78.46</v>
       </c>
       <c r="G47" s="1" t="n">
@@ -10085,7 +10079,7 @@
         <v>4.17469983497493</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10095,10 +10089,10 @@
       <c r="B48" s="30" t="n">
         <v>530</v>
       </c>
-      <c r="E48" s="44" t="n">
+      <c r="E48" s="41" t="n">
         <v>69.91</v>
       </c>
-      <c r="F48" s="44" t="n">
+      <c r="F48" s="41" t="n">
         <v>80.9</v>
       </c>
       <c r="G48" s="1" t="n">
@@ -10114,7 +10108,7 @@
         <v>7.06623684804708</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10124,10 +10118,10 @@
       <c r="B49" s="30" t="n">
         <v>1030</v>
       </c>
-      <c r="E49" s="44" t="n">
+      <c r="E49" s="41" t="n">
         <v>69.91</v>
       </c>
-      <c r="F49" s="44" t="n">
+      <c r="F49" s="41" t="n">
         <v>80.9</v>
       </c>
       <c r="G49" s="1" t="n">
@@ -10143,7 +10137,7 @@
         <v>13.73249802545</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10153,10 +10147,10 @@
       <c r="B50" s="30" t="n">
         <v>1250</v>
       </c>
-      <c r="E50" s="44" t="n">
+      <c r="E50" s="41" t="n">
         <v>68.46</v>
       </c>
-      <c r="F50" s="44" t="n">
+      <c r="F50" s="41" t="n">
         <v>79.9</v>
       </c>
       <c r="G50" s="1" t="n">
@@ -10172,7 +10166,7 @@
         <v>16.9516964859302</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10182,10 +10176,10 @@
       <c r="B51" s="30" t="n">
         <v>-1000</v>
       </c>
-      <c r="E51" s="44" t="n">
+      <c r="E51" s="41" t="n">
         <v>65.83</v>
       </c>
-      <c r="F51" s="44" t="n">
+      <c r="F51" s="41" t="n">
         <v>77.42</v>
       </c>
       <c r="G51" s="1" t="n">
@@ -10201,7 +10195,7 @@
         <v>-14.0536007964276</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10211,10 +10205,10 @@
       <c r="B52" s="30" t="n">
         <v>3500</v>
       </c>
-      <c r="E52" s="44" t="n">
+      <c r="E52" s="41" t="n">
         <v>65.5</v>
       </c>
-      <c r="F52" s="44" t="n">
+      <c r="F52" s="41" t="n">
         <v>75.52</v>
       </c>
       <c r="G52" s="1" t="n">
@@ -10230,7 +10224,7 @@
         <v>49.8902267434338</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10240,10 +10234,10 @@
       <c r="B53" s="30" t="n">
         <v>-10000</v>
       </c>
-      <c r="E53" s="44" t="n">
+      <c r="E53" s="41" t="n">
         <v>65.67</v>
       </c>
-      <c r="F53" s="44" t="n">
+      <c r="F53" s="41" t="n">
         <v>74.72</v>
       </c>
       <c r="G53" s="1" t="n">
@@ -10259,10 +10253,10 @@
         <v>-143.054755315739</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10273,10 +10267,10 @@
         <f aca="false">20433 - 5000 - 5000</f>
         <v>10433</v>
       </c>
-      <c r="E54" s="44" t="n">
+      <c r="E54" s="41" t="n">
         <v>65.86</v>
       </c>
-      <c r="F54" s="44" t="n">
+      <c r="F54" s="41" t="n">
         <v>75.49</v>
       </c>
       <c r="G54" s="1" t="n">
@@ -10292,7 +10286,7 @@
         <v>148.307759081602</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10324,10 +10318,10 @@
         <f aca="false">10000 + 590 + 114.76</f>
         <v>10704.76</v>
       </c>
-      <c r="E57" s="44" t="n">
+      <c r="E57" s="41" t="n">
         <v>62.05</v>
       </c>
-      <c r="F57" s="44" t="n">
+      <c r="F57" s="41" t="n">
         <v>72.74</v>
       </c>
       <c r="G57" s="1" t="n">
@@ -10343,9 +10337,9 @@
         <v>159.841493939205</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="K57" s="38" t="n">
+        <v>328</v>
+      </c>
+      <c r="K57" s="5" t="n">
         <v>43347</v>
       </c>
     </row>
@@ -10353,13 +10347,13 @@
       <c r="A58" s="11" t="n">
         <v>43294</v>
       </c>
-      <c r="B58" s="47" t="n">
+      <c r="B58" s="44" t="n">
         <v>300</v>
       </c>
-      <c r="E58" s="44" t="n">
+      <c r="E58" s="41" t="n">
         <v>62.25</v>
       </c>
-      <c r="F58" s="44" t="n">
+      <c r="F58" s="41" t="n">
         <v>72.5</v>
       </c>
       <c r="G58" s="1" t="n">
@@ -10375,9 +10369,9 @@
         <v>4.47860407145825</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="K58" s="38" t="n">
+        <v>328</v>
+      </c>
+      <c r="K58" s="5" t="n">
         <v>43347</v>
       </c>
     </row>
@@ -10385,7 +10379,7 @@
       <c r="A59" s="11" t="n">
         <v>43300</v>
       </c>
-      <c r="B59" s="47" t="n">
+      <c r="B59" s="44" t="n">
         <f aca="false">10000 + 590</f>
         <v>10590</v>
       </c>
@@ -10408,9 +10402,9 @@
         <v>154.537246717408</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="K59" s="38" t="n">
+        <v>328</v>
+      </c>
+      <c r="K59" s="5" t="n">
         <v>43347</v>
       </c>
     </row>
@@ -10418,14 +10412,14 @@
       <c r="A60" s="11" t="n">
         <v>43347</v>
       </c>
-      <c r="B60" s="47" t="n">
+      <c r="B60" s="44" t="n">
         <f aca="false">SUM(B57:B59) - 20000</f>
         <v>1594.76</v>
       </c>
-      <c r="E60" s="44" t="n">
+      <c r="E60" s="41" t="n">
         <v>68.07</v>
       </c>
-      <c r="F60" s="44" t="n">
+      <c r="F60" s="41" t="n">
         <v>78.83</v>
       </c>
       <c r="G60" s="1" t="n">
@@ -10441,7 +10435,7 @@
         <v>21.8293023942919</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" s="12" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10473,9 +10467,9 @@
         <v>244.922342408256</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="K62" s="40" t="n">
+        <v>329</v>
+      </c>
+      <c r="K62" s="17" t="n">
         <v>43362</v>
       </c>
     </row>
@@ -10499,10 +10493,10 @@
       <c r="D64" s="30" t="n">
         <v>2000</v>
       </c>
-      <c r="E64" s="44" t="n">
+      <c r="E64" s="41" t="n">
         <v>0.97</v>
       </c>
-      <c r="F64" s="44" t="n">
+      <c r="F64" s="41" t="n">
         <v>1.13</v>
       </c>
       <c r="G64" s="18" t="n">
@@ -10518,11 +10512,19 @@
         <v>1915.88358726394</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="K64" s="38" t="n">
+        <v>330</v>
+      </c>
+      <c r="K64" s="5" t="n">
         <v>43423</v>
       </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
+      <c r="G65" s="0"/>
+      <c r="H65" s="0"/>
+      <c r="I65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="n">
@@ -10550,9 +10552,9 @@
         <v>7.92235787417748</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="K66" s="38" t="n">
+        <v>331</v>
+      </c>
+      <c r="K66" s="5" t="n">
         <v>43377</v>
       </c>
     </row>
@@ -10563,10 +10565,10 @@
       <c r="B67" s="30" t="n">
         <v>1000</v>
       </c>
-      <c r="E67" s="44" t="n">
+      <c r="E67" s="41" t="n">
         <v>65.83</v>
       </c>
-      <c r="F67" s="44" t="n">
+      <c r="F67" s="41" t="n">
         <v>77.42</v>
       </c>
       <c r="G67" s="1" t="n">
@@ -10582,11 +10584,19 @@
         <v>14.0536007964276</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="K67" s="38" t="n">
+        <v>331</v>
+      </c>
+      <c r="K67" s="5" t="n">
         <v>43377</v>
       </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0"/>
+      <c r="E68" s="0"/>
+      <c r="F68" s="0"/>
+      <c r="G68" s="0"/>
+      <c r="H68" s="0"/>
+      <c r="I68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="n">
@@ -10595,10 +10605,10 @@
       <c r="B69" s="30" t="n">
         <v>30000</v>
       </c>
-      <c r="E69" s="44" t="n">
+      <c r="E69" s="41" t="n">
         <v>66.07</v>
       </c>
-      <c r="F69" s="44" t="n">
+      <c r="F69" s="41" t="n">
         <v>76.47</v>
       </c>
       <c r="G69" s="1" t="n">
@@ -10614,14 +10624,16 @@
         <v>423.187290866832</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="K69" s="38" t="n">
+        <v>332</v>
+      </c>
+      <c r="K69" s="5" t="n">
         <v>43394</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
       <c r="G70" s="0"/>
       <c r="H70" s="0"/>
       <c r="I70" s="0"/>
@@ -10633,10 +10645,10 @@
       <c r="B71" s="30" t="n">
         <v>1000</v>
       </c>
-      <c r="E71" s="44" t="n">
+      <c r="E71" s="41" t="n">
         <v>63.47</v>
       </c>
-      <c r="F71" s="44" t="n">
+      <c r="F71" s="41" t="n">
         <v>74.46</v>
       </c>
       <c r="G71" s="1" t="n">
@@ -10652,7 +10664,7 @@
         <v>14.5927522868185</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -10682,8 +10694,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="14" width="11.4615384615385"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="14" width="0"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.497975708502"/>
@@ -10794,7 +10806,7 @@
         <v>43459</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30" t="n">
@@ -10872,7 +10884,7 @@
         <v>43459</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C7" s="30" t="n">
         <v>80000</v>
@@ -11351,8 +11363,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="14" width="11.4615384615385"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="14" width="0"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.497975708502"/>
@@ -11482,7 +11494,7 @@
         <v>43422</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30" t="n">
@@ -11507,7 +11519,7 @@
         <v>43423</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C6" s="30" t="n">
         <v>21000</v>
@@ -11557,7 +11569,7 @@
         <v>43426</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30" t="n">
@@ -11582,7 +11594,7 @@
         <v>43426</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="n">
@@ -11607,7 +11619,7 @@
         <v>43426</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="n">
@@ -11709,7 +11721,7 @@
         <v>43440</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="n">
@@ -11734,7 +11746,7 @@
         <v>43440</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="n">
@@ -11759,7 +11771,7 @@
         <v>43440</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30" t="n">
@@ -11784,7 +11796,7 @@
         <v>43440</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="n">
@@ -11809,7 +11821,7 @@
         <v>43440</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="n">
@@ -11859,7 +11871,7 @@
         <v>43453</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C20" s="30" t="n">
         <v>21000</v>
@@ -11909,7 +11921,7 @@
         <v>43459</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="n">
@@ -11934,7 +11946,7 @@
         <v>43460</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C23" s="30" t="n">
         <v>80000</v>
@@ -12089,8 +12101,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="14" width="11.4615384615385"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="14" width="0"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.497975708502"/>
@@ -12150,7 +12162,7 @@
         <f aca="false">E2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="48" t="n">
+      <c r="G2" s="45" t="n">
         <f aca="false">D2-F2</f>
         <v>236506.02</v>
       </c>
@@ -12183,7 +12195,7 @@
         <f aca="false">E3+F2</f>
         <v>17460.6208851267</v>
       </c>
-      <c r="G3" s="48" t="n">
+      <c r="G3" s="45" t="n">
         <f aca="false">D3-F3</f>
         <v>219045.399114873</v>
       </c>
@@ -12195,7 +12207,7 @@
         <v>43427</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30" t="n">
@@ -12209,7 +12221,7 @@
         <f aca="false">E4+F3</f>
         <v>117460.620885127</v>
       </c>
-      <c r="G4" s="48" t="n">
+      <c r="G4" s="45" t="n">
         <f aca="false">D4-F4</f>
         <v>119045.399114873</v>
       </c>
@@ -12234,7 +12246,7 @@
         <f aca="false">E5+F4</f>
         <v>147460.620885127</v>
       </c>
-      <c r="G5" s="48" t="n">
+      <c r="G5" s="45" t="n">
         <f aca="false">D5-F5</f>
         <v>89045.3991148733</v>
       </c>
@@ -12260,7 +12272,7 @@
         <f aca="false">E6+F5</f>
         <v>147460.620885127</v>
       </c>
-      <c r="G6" s="48" t="n">
+      <c r="G6" s="45" t="n">
         <f aca="false">D6-F6</f>
         <v>122445.399114873</v>
       </c>
@@ -12286,7 +12298,7 @@
         <f aca="false">E7+F6</f>
         <v>172196.50047239</v>
       </c>
-      <c r="G7" s="48" t="n">
+      <c r="G7" s="45" t="n">
         <f aca="false">D7-F7</f>
         <v>97709.5195276104</v>
       </c>
@@ -12311,7 +12323,7 @@
         <f aca="false">E8+F7</f>
         <v>192196.50047239</v>
       </c>
-      <c r="G8" s="48" t="n">
+      <c r="G8" s="45" t="n">
         <f aca="false">D8-F8</f>
         <v>77709.5195276104</v>
       </c>
@@ -12322,7 +12334,7 @@
         <v>43453</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C9" s="30" t="n">
         <v>21000</v>
@@ -12336,7 +12348,7 @@
         <f aca="false">E9+F8</f>
         <v>192196.50047239</v>
       </c>
-      <c r="G9" s="49" t="n">
+      <c r="G9" s="46" t="n">
         <f aca="false">D9-F9</f>
         <v>98709.5195276104</v>
       </c>
@@ -12361,7 +12373,7 @@
         <f aca="false">E10+F9</f>
         <v>222196.50047239</v>
       </c>
-      <c r="G10" s="49" t="n">
+      <c r="G10" s="46" t="n">
         <f aca="false">D10-F10</f>
         <v>68709.5195276104</v>
       </c>
@@ -12387,7 +12399,7 @@
         <f aca="false">E11+F10</f>
         <v>242567.224838371</v>
       </c>
-      <c r="G11" s="48" t="n">
+      <c r="G11" s="45" t="n">
         <f aca="false">D11-F11</f>
         <v>48338.7951616292</v>
       </c>
@@ -12412,7 +12424,7 @@
         <f aca="false">E12+F11</f>
         <v>272567.224838371</v>
       </c>
-      <c r="G12" s="48" t="n">
+      <c r="G12" s="45" t="n">
         <f aca="false">D12-F12</f>
         <v>18338.7951616292</v>
       </c>
@@ -12438,7 +12450,7 @@
         <f aca="false">E13+F12</f>
         <v>272567.224838371</v>
       </c>
-      <c r="G13" s="48" t="n">
+      <c r="G13" s="45" t="n">
         <f aca="false">D13-F13</f>
         <v>51738.7951616292</v>
       </c>
@@ -12464,7 +12476,7 @@
         <f aca="false">E14+F13</f>
         <v>292937.949204352</v>
       </c>
-      <c r="G14" s="48" t="n">
+      <c r="G14" s="45" t="n">
         <f aca="false">D14-F14</f>
         <v>31368.070795648</v>
       </c>
@@ -12489,7 +12501,7 @@
         <f aca="false">E15+F14</f>
         <v>312937.949204352</v>
       </c>
-      <c r="G15" s="48" t="n">
+      <c r="G15" s="45" t="n">
         <f aca="false">D15-F15</f>
         <v>11368.070795648</v>
       </c>
@@ -12500,7 +12512,7 @@
         <v>43484</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C16" s="30" t="n">
         <v>21000</v>
@@ -12514,7 +12526,7 @@
         <f aca="false">E16+F15</f>
         <v>312937.949204352</v>
       </c>
-      <c r="G16" s="49" t="n">
+      <c r="G16" s="46" t="n">
         <f aca="false">D16-F16</f>
         <v>32368.070795648</v>
       </c>
@@ -12540,7 +12552,7 @@
         <f aca="false">E17+F16</f>
         <v>317303.104425634</v>
       </c>
-      <c r="G17" s="49" t="n">
+      <c r="G17" s="46" t="n">
         <f aca="false">D17-F17</f>
         <v>28002.9155743663</v>
       </c>
@@ -12565,7 +12577,7 @@
         <f aca="false">E18+F17</f>
         <v>347303.104425634</v>
       </c>
-      <c r="G18" s="49" t="n">
+      <c r="G18" s="46" t="n">
         <f aca="false">D18-F18</f>
         <v>-1997.08442563366</v>
       </c>
@@ -12591,7 +12603,7 @@
         <f aca="false">E19+F18</f>
         <v>367673.828791615</v>
       </c>
-      <c r="G19" s="49" t="n">
+      <c r="G19" s="46" t="n">
         <f aca="false">D19-F19</f>
         <v>-22367.8087916148</v>
       </c>
@@ -12617,7 +12629,7 @@
         <f aca="false">E20+F19</f>
         <v>367673.828791615</v>
       </c>
-      <c r="G20" s="49" t="n">
+      <c r="G20" s="46" t="n">
         <f aca="false">D20-F20</f>
         <v>11032.1912083852</v>
       </c>
@@ -12812,14 +12824,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -17543,13 +17555,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -21274,17 +21286,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -25962,19 +25974,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -31516,14 +31528,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="14" width="11.4615384615385"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="14" width="0"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="12.6396761133603"/>
     <col collapsed="false" hidden="true" max="6" min="6" style="14" width="0"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="14" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.2834008097166"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.497975708502"/>
@@ -32258,8 +32270,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="14" width="11.4615384615385"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="14" width="0"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.497975708502"/>
@@ -32910,7 +32922,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="37.2793522267206"/>
     <col collapsed="false" hidden="false" max="11" min="3" style="30" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
@@ -36271,7 +36283,7 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="38" t="n">
+      <c r="A150" s="5" t="n">
         <v>43393</v>
       </c>
       <c r="B150" s="30" t="s">
@@ -36293,7 +36305,7 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="38" t="n">
+      <c r="A151" s="5" t="n">
         <v>43393</v>
       </c>
       <c r="B151" s="30" t="s">
@@ -36315,7 +36327,7 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="38" t="n">
+      <c r="A152" s="5" t="n">
         <v>43394</v>
       </c>
       <c r="B152" s="36" t="s">
@@ -36337,7 +36349,7 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="38" t="n">
+      <c r="A153" s="5" t="n">
         <v>43394</v>
       </c>
       <c r="B153" s="30" t="s">
@@ -36359,7 +36371,7 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="38" t="n">
+      <c r="A154" s="5" t="n">
         <v>43395</v>
       </c>
       <c r="B154" s="30" t="s">
@@ -36381,7 +36393,7 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="38" t="n">
+      <c r="A155" s="5" t="n">
         <v>43395</v>
       </c>
       <c r="B155" s="30" t="s">
@@ -36403,7 +36415,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="38" t="n">
+      <c r="A156" s="5" t="n">
         <v>43395</v>
       </c>
       <c r="B156" s="30" t="s">
@@ -36425,7 +36437,7 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="38" t="n">
+      <c r="A157" s="5" t="n">
         <v>43395</v>
       </c>
       <c r="B157" s="30" t="s">
@@ -36447,7 +36459,7 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="38" t="n">
+      <c r="A158" s="5" t="n">
         <v>43396</v>
       </c>
       <c r="B158" s="30" t="s">
@@ -36469,7 +36481,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="38" t="n">
+      <c r="A159" s="5" t="n">
         <v>43396</v>
       </c>
       <c r="B159" s="30" t="s">
@@ -36491,7 +36503,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="38" t="n">
+      <c r="A160" s="5" t="n">
         <v>43397</v>
       </c>
       <c r="B160" s="30" t="s">
@@ -36513,7 +36525,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="38" t="n">
+      <c r="A161" s="5" t="n">
         <v>43397</v>
       </c>
       <c r="B161" s="30" t="s">
@@ -36535,7 +36547,7 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="38" t="n">
+      <c r="A162" s="5" t="n">
         <v>43397</v>
       </c>
       <c r="B162" s="30" t="s">
@@ -36557,7 +36569,7 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="38" t="n">
+      <c r="A163" s="5" t="n">
         <v>43397</v>
       </c>
       <c r="B163" s="30" t="s">
@@ -36579,7 +36591,7 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="38" t="n">
+      <c r="A164" s="5" t="n">
         <v>43397</v>
       </c>
       <c r="B164" s="30" t="s">
@@ -36601,7 +36613,7 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="38" t="n">
+      <c r="A165" s="5" t="n">
         <v>43398</v>
       </c>
       <c r="B165" s="30" t="s">
@@ -36623,7 +36635,7 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="38" t="n">
+      <c r="A166" s="5" t="n">
         <v>43398</v>
       </c>
       <c r="B166" s="30" t="s">
@@ -36645,7 +36657,7 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="38" t="n">
+      <c r="A167" s="5" t="n">
         <v>43398</v>
       </c>
       <c r="B167" s="30" t="s">
@@ -36668,7 +36680,7 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="38" t="n">
+      <c r="A168" s="5" t="n">
         <v>43399</v>
       </c>
       <c r="B168" s="30" t="s">
@@ -36690,7 +36702,7 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="38" t="n">
+      <c r="A169" s="5" t="n">
         <v>43399</v>
       </c>
       <c r="B169" s="30" t="s">
@@ -36712,7 +36724,7 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="38" t="n">
+      <c r="A170" s="5" t="n">
         <v>43399</v>
       </c>
       <c r="B170" s="30" t="s">
@@ -36734,7 +36746,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="38" t="n">
+      <c r="A171" s="5" t="n">
         <v>43400</v>
       </c>
       <c r="B171" s="30" t="s">
@@ -36757,7 +36769,7 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="38" t="n">
+      <c r="A172" s="5" t="n">
         <v>43400</v>
       </c>
       <c r="B172" s="30" t="s">
@@ -36779,7 +36791,7 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="38" t="n">
+      <c r="A173" s="5" t="n">
         <v>43400</v>
       </c>
       <c r="B173" s="30" t="s">
@@ -36801,7 +36813,7 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="38" t="n">
+      <c r="A174" s="5" t="n">
         <v>43400</v>
       </c>
       <c r="B174" s="30" t="s">
@@ -36823,7 +36835,7 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="38" t="n">
+      <c r="A175" s="5" t="n">
         <v>43400</v>
       </c>
       <c r="B175" s="30" t="s">
@@ -36845,7 +36857,7 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="38" t="n">
+      <c r="A176" s="5" t="n">
         <v>43401</v>
       </c>
       <c r="B176" s="30" t="s">
@@ -36868,7 +36880,7 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="38" t="n">
+      <c r="A177" s="5" t="n">
         <v>43401</v>
       </c>
       <c r="B177" s="30" t="s">
@@ -36890,7 +36902,7 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="38" t="n">
+      <c r="A178" s="5" t="n">
         <v>43401</v>
       </c>
       <c r="B178" s="30" t="s">
@@ -36912,7 +36924,7 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="38" t="n">
+      <c r="A179" s="5" t="n">
         <v>43402</v>
       </c>
       <c r="B179" s="30" t="s">
@@ -36934,7 +36946,7 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="38" t="n">
+      <c r="A180" s="5" t="n">
         <v>43403</v>
       </c>
       <c r="B180" s="30" t="s">
@@ -36956,7 +36968,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="38" t="n">
+      <c r="A181" s="5" t="n">
         <v>43403</v>
       </c>
       <c r="B181" s="30" t="s">
@@ -36978,7 +36990,7 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="38" t="n">
+      <c r="A182" s="5" t="n">
         <v>43403</v>
       </c>
       <c r="B182" s="30" t="s">
@@ -37000,7 +37012,7 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="38" t="n">
+      <c r="A183" s="5" t="n">
         <v>43403</v>
       </c>
       <c r="B183" s="30" t="s">
@@ -37022,7 +37034,7 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="38" t="n">
+      <c r="A184" s="5" t="n">
         <v>43404</v>
       </c>
       <c r="B184" s="30" t="s">
@@ -37044,7 +37056,7 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="38" t="n">
+      <c r="A185" s="5" t="n">
         <v>43404</v>
       </c>
       <c r="B185" s="30" t="s">
@@ -37066,7 +37078,7 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="38" t="n">
+      <c r="A186" s="5" t="n">
         <v>43404</v>
       </c>
       <c r="B186" s="30" t="s">
@@ -37088,7 +37100,7 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="38" t="n">
+      <c r="A187" s="5" t="n">
         <v>43404</v>
       </c>
       <c r="B187" s="30" t="s">
@@ -37110,7 +37122,7 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="38" t="n">
+      <c r="A188" s="5" t="n">
         <v>43404</v>
       </c>
       <c r="B188" s="30" t="s">
@@ -37132,7 +37144,7 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="38" t="n">
+      <c r="A189" s="5" t="n">
         <v>43405</v>
       </c>
       <c r="B189" s="30" t="s">
@@ -37154,7 +37166,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="38" t="n">
+      <c r="A190" s="5" t="n">
         <v>43406</v>
       </c>
       <c r="B190" s="30" t="s">
@@ -37176,7 +37188,7 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="38" t="n">
+      <c r="A191" s="5" t="n">
         <v>43406</v>
       </c>
       <c r="B191" s="30" t="s">
@@ -37198,7 +37210,7 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="38" t="n">
+      <c r="A192" s="5" t="n">
         <v>43406</v>
       </c>
       <c r="B192" s="30" t="s">
@@ -37223,7 +37235,7 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="38" t="n">
+      <c r="A193" s="5" t="n">
         <v>43406</v>
       </c>
       <c r="B193" s="30" t="s">
@@ -37245,7 +37257,7 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="38" t="n">
+      <c r="A194" s="5" t="n">
         <v>43406</v>
       </c>
       <c r="B194" s="30" t="s">
@@ -37267,7 +37279,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="38" t="n">
+      <c r="A195" s="5" t="n">
         <v>43406</v>
       </c>
       <c r="B195" s="30" t="s">
@@ -37289,7 +37301,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="38" t="n">
+      <c r="A196" s="5" t="n">
         <v>43406</v>
       </c>
       <c r="B196" s="30" t="s">
@@ -37311,7 +37323,7 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="38" t="n">
+      <c r="A197" s="5" t="n">
         <v>43406</v>
       </c>
       <c r="B197" s="30" t="s">
@@ -37333,7 +37345,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="38" t="n">
+      <c r="A198" s="5" t="n">
         <v>43407</v>
       </c>
       <c r="B198" s="30" t="s">
@@ -37355,7 +37367,7 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="38" t="n">
+      <c r="A199" s="5" t="n">
         <v>43407</v>
       </c>
       <c r="B199" s="36" t="s">
@@ -37377,7 +37389,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="38" t="n">
+      <c r="A200" s="5" t="n">
         <v>43408</v>
       </c>
       <c r="B200" s="30" t="s">
@@ -37399,7 +37411,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="38" t="n">
+      <c r="A201" s="5" t="n">
         <v>43408</v>
       </c>
       <c r="B201" s="30" t="s">
@@ -37422,7 +37434,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="38" t="n">
+      <c r="A202" s="5" t="n">
         <v>43408</v>
       </c>
       <c r="B202" s="30" t="s">
@@ -37444,7 +37456,7 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="38" t="n">
+      <c r="A203" s="5" t="n">
         <v>43408</v>
       </c>
       <c r="B203" s="30" t="s">
@@ -37466,7 +37478,7 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="38" t="n">
+      <c r="A204" s="5" t="n">
         <v>43408</v>
       </c>
       <c r="B204" s="30" t="s">
@@ -37488,7 +37500,7 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="38" t="n">
+      <c r="A205" s="5" t="n">
         <v>43408</v>
       </c>
       <c r="B205" s="30" t="s">
@@ -37510,7 +37522,7 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="38" t="n">
+      <c r="A206" s="5" t="n">
         <v>43408</v>
       </c>
       <c r="B206" s="30" t="s">
@@ -37532,7 +37544,7 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="38" t="n">
+      <c r="A207" s="5" t="n">
         <v>43408</v>
       </c>
       <c r="B207" s="30" t="s">
@@ -37554,7 +37566,7 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="38" t="n">
+      <c r="A208" s="5" t="n">
         <v>43408</v>
       </c>
       <c r="B208" s="30" t="s">
@@ -37576,7 +37588,7 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="38" t="n">
+      <c r="A209" s="5" t="n">
         <v>43409</v>
       </c>
       <c r="B209" s="30" t="s">
@@ -37598,7 +37610,7 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="38" t="n">
+      <c r="A210" s="5" t="n">
         <v>43410</v>
       </c>
       <c r="B210" s="30" t="s">
@@ -37620,7 +37632,7 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="38" t="n">
+      <c r="A211" s="5" t="n">
         <v>43411</v>
       </c>
       <c r="B211" s="30" t="s">
@@ -37642,7 +37654,7 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="38" t="n">
+      <c r="A212" s="5" t="n">
         <v>43411</v>
       </c>
       <c r="B212" s="30" t="s">
@@ -37664,7 +37676,7 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="38" t="n">
+      <c r="A213" s="5" t="n">
         <v>43411</v>
       </c>
       <c r="B213" s="30" t="s">
@@ -37686,7 +37698,7 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="38" t="n">
+      <c r="A214" s="5" t="n">
         <v>43411</v>
       </c>
       <c r="B214" s="30" t="s">
@@ -37708,7 +37720,7 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="38" t="n">
+      <c r="A215" s="5" t="n">
         <v>43412</v>
       </c>
       <c r="B215" s="30" t="s">
@@ -37730,7 +37742,7 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="38" t="n">
+      <c r="A216" s="5" t="n">
         <v>43412</v>
       </c>
       <c r="B216" s="30" t="s">
@@ -37752,7 +37764,7 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="38" t="n">
+      <c r="A217" s="5" t="n">
         <v>43412</v>
       </c>
       <c r="B217" s="30" t="s">
@@ -37774,7 +37786,7 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="38" t="n">
+      <c r="A218" s="5" t="n">
         <v>43412</v>
       </c>
       <c r="B218" s="30" t="s">
@@ -37796,7 +37808,7 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="38" t="n">
+      <c r="A219" s="5" t="n">
         <v>43412</v>
       </c>
       <c r="B219" s="30" t="s">
@@ -37818,7 +37830,7 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="38" t="n">
+      <c r="A220" s="5" t="n">
         <v>43412</v>
       </c>
       <c r="B220" s="30" t="s">
@@ -37840,7 +37852,7 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="38"/>
+      <c r="A221" s="5"/>
       <c r="C221" s="31"/>
       <c r="D221" s="31"/>
       <c r="E221" s="31"/>
@@ -37855,7 +37867,7 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="38"/>
+      <c r="A222" s="5"/>
       <c r="C222" s="31"/>
       <c r="D222" s="31"/>
       <c r="E222" s="31"/>
@@ -37870,7 +37882,7 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="38"/>
+      <c r="A223" s="5"/>
       <c r="C223" s="31"/>
       <c r="D223" s="31"/>
       <c r="E223" s="31"/>
@@ -37885,7 +37897,7 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="38"/>
+      <c r="A224" s="5"/>
       <c r="C224" s="31"/>
       <c r="D224" s="31"/>
       <c r="E224" s="31"/>
@@ -37900,7 +37912,7 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="38"/>
+      <c r="A225" s="5"/>
       <c r="C225" s="31"/>
       <c r="D225" s="31"/>
       <c r="E225" s="31"/>
@@ -37915,7 +37927,7 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="38"/>
+      <c r="A226" s="5"/>
       <c r="C226" s="31"/>
       <c r="D226" s="31"/>
       <c r="E226" s="31"/>
@@ -37930,7 +37942,7 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="38"/>
+      <c r="A227" s="5"/>
       <c r="C227" s="31"/>
       <c r="D227" s="31"/>
       <c r="E227" s="31"/>
@@ -37945,7 +37957,7 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="38"/>
+      <c r="A228" s="5"/>
       <c r="C228" s="31"/>
       <c r="D228" s="31"/>
       <c r="E228" s="31"/>
@@ -37960,7 +37972,7 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="38"/>
+      <c r="A229" s="5"/>
       <c r="C229" s="31"/>
       <c r="D229" s="31"/>
       <c r="E229" s="31"/>
@@ -37975,7 +37987,7 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="38"/>
+      <c r="A230" s="5"/>
       <c r="C230" s="31"/>
       <c r="D230" s="31"/>
       <c r="E230" s="31"/>
@@ -37990,7 +38002,7 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="38"/>
+      <c r="A231" s="5"/>
       <c r="C231" s="31"/>
       <c r="D231" s="31"/>
       <c r="E231" s="31"/>
@@ -38005,7 +38017,7 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="38"/>
+      <c r="A232" s="5"/>
       <c r="C232" s="31"/>
       <c r="D232" s="31"/>
       <c r="E232" s="31"/>
@@ -38020,7 +38032,7 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="38"/>
+      <c r="A233" s="5"/>
       <c r="C233" s="31"/>
       <c r="D233" s="31"/>
       <c r="E233" s="31"/>
@@ -38035,7 +38047,7 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="38"/>
+      <c r="A234" s="5"/>
       <c r="C234" s="31"/>
       <c r="D234" s="31"/>
       <c r="E234" s="31"/>
@@ -38050,7 +38062,7 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="38"/>
+      <c r="A235" s="5"/>
       <c r="C235" s="31"/>
       <c r="D235" s="31"/>
       <c r="E235" s="31"/>
@@ -38065,7 +38077,7 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="38"/>
+      <c r="A236" s="5"/>
       <c r="C236" s="31"/>
       <c r="D236" s="31"/>
       <c r="E236" s="31"/>
@@ -38080,7 +38092,7 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="38"/>
+      <c r="A237" s="5"/>
       <c r="C237" s="31"/>
       <c r="D237" s="31"/>
       <c r="E237" s="31"/>
@@ -38095,7 +38107,7 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="38"/>
+      <c r="A238" s="5"/>
       <c r="C238" s="31"/>
       <c r="D238" s="31"/>
       <c r="E238" s="31"/>
@@ -38110,7 +38122,7 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="38"/>
+      <c r="A239" s="5"/>
       <c r="C239" s="31"/>
       <c r="D239" s="31"/>
       <c r="E239" s="31"/>
@@ -38125,7 +38137,7 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="38"/>
+      <c r="A240" s="5"/>
       <c r="C240" s="31"/>
       <c r="D240" s="31"/>
       <c r="E240" s="31"/>
@@ -38140,7 +38152,7 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="38"/>
+      <c r="A241" s="5"/>
       <c r="C241" s="31"/>
       <c r="D241" s="31"/>
       <c r="E241" s="31"/>
@@ -38155,7 +38167,7 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="38"/>
+      <c r="A242" s="5"/>
       <c r="C242" s="31"/>
       <c r="D242" s="31"/>
       <c r="E242" s="31"/>
@@ -38170,7 +38182,7 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="38"/>
+      <c r="A243" s="5"/>
       <c r="C243" s="31"/>
       <c r="D243" s="31"/>
       <c r="E243" s="31"/>
@@ -38185,7 +38197,7 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="38"/>
+      <c r="A244" s="5"/>
       <c r="C244" s="31"/>
       <c r="D244" s="31"/>
       <c r="E244" s="31"/>
@@ -38200,7 +38212,7 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="38"/>
+      <c r="A245" s="5"/>
       <c r="C245" s="31"/>
       <c r="D245" s="31"/>
       <c r="E245" s="31"/>
@@ -38215,7 +38227,7 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="38"/>
+      <c r="A246" s="5"/>
       <c r="C246" s="31"/>
       <c r="D246" s="31"/>
       <c r="E246" s="31"/>
@@ -38230,7 +38242,7 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="38"/>
+      <c r="A247" s="5"/>
       <c r="C247" s="31"/>
       <c r="D247" s="31"/>
       <c r="E247" s="31"/>
@@ -38245,7 +38257,7 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="38"/>
+      <c r="A248" s="5"/>
       <c r="C248" s="31"/>
       <c r="D248" s="31"/>
       <c r="E248" s="31"/>
@@ -38260,7 +38272,7 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="38"/>
+      <c r="A249" s="5"/>
       <c r="C249" s="31"/>
       <c r="D249" s="31"/>
       <c r="E249" s="31"/>
@@ -38275,7 +38287,7 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="38"/>
+      <c r="A250" s="5"/>
       <c r="C250" s="31"/>
       <c r="D250" s="31"/>
       <c r="E250" s="31"/>
@@ -38290,7 +38302,7 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="38"/>
+      <c r="A251" s="5"/>
       <c r="C251" s="31"/>
       <c r="D251" s="31"/>
       <c r="E251" s="31"/>
@@ -38305,7 +38317,7 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="38"/>
+      <c r="A252" s="5"/>
       <c r="C252" s="31"/>
       <c r="D252" s="31"/>
       <c r="E252" s="31"/>
@@ -38320,7 +38332,7 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="38"/>
+      <c r="A253" s="5"/>
       <c r="C253" s="31"/>
       <c r="D253" s="31"/>
       <c r="E253" s="31"/>
@@ -38335,7 +38347,7 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="38"/>
+      <c r="A254" s="5"/>
       <c r="C254" s="31"/>
       <c r="D254" s="31"/>
       <c r="E254" s="31"/>
@@ -38350,7 +38362,7 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="38"/>
+      <c r="A255" s="5"/>
       <c r="C255" s="31"/>
       <c r="D255" s="31"/>
       <c r="E255" s="31"/>
@@ -38365,7 +38377,7 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="38"/>
+      <c r="A256" s="5"/>
       <c r="C256" s="31"/>
       <c r="D256" s="31"/>
       <c r="E256" s="31"/>
@@ -38380,7 +38392,7 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="38"/>
+      <c r="A257" s="5"/>
       <c r="C257" s="31"/>
       <c r="D257" s="31"/>
       <c r="E257" s="31"/>
@@ -38395,7 +38407,7 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="38"/>
+      <c r="A258" s="5"/>
       <c r="C258" s="31"/>
       <c r="D258" s="31"/>
       <c r="E258" s="31"/>
@@ -38410,7 +38422,7 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="38"/>
+      <c r="A259" s="5"/>
       <c r="C259" s="31"/>
       <c r="D259" s="31"/>
       <c r="E259" s="31"/>
@@ -38425,7 +38437,7 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="38"/>
+      <c r="A260" s="5"/>
       <c r="C260" s="31"/>
       <c r="D260" s="31"/>
       <c r="E260" s="31"/>
@@ -38440,7 +38452,7 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="38"/>
+      <c r="A261" s="5"/>
       <c r="C261" s="31"/>
       <c r="D261" s="31"/>
       <c r="E261" s="31"/>
@@ -38455,7 +38467,7 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="38"/>
+      <c r="A262" s="5"/>
       <c r="C262" s="31"/>
       <c r="D262" s="31"/>
       <c r="E262" s="31"/>
@@ -38470,7 +38482,7 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="38"/>
+      <c r="A263" s="5"/>
       <c r="C263" s="31"/>
       <c r="D263" s="31"/>
       <c r="E263" s="31"/>
@@ -38485,7 +38497,7 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="38"/>
+      <c r="A264" s="5"/>
       <c r="C264" s="31"/>
       <c r="D264" s="31"/>
       <c r="E264" s="31"/>
@@ -38500,7 +38512,7 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="38"/>
+      <c r="A265" s="5"/>
       <c r="C265" s="31"/>
       <c r="D265" s="31"/>
       <c r="E265" s="31"/>
@@ -38515,7 +38527,7 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="38"/>
+      <c r="A266" s="5"/>
       <c r="C266" s="31"/>
       <c r="D266" s="31"/>
       <c r="E266" s="31"/>
@@ -38530,7 +38542,7 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="38"/>
+      <c r="A267" s="5"/>
       <c r="C267" s="31"/>
       <c r="D267" s="31"/>
       <c r="E267" s="31"/>
@@ -38545,7 +38557,7 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="38"/>
+      <c r="A268" s="5"/>
       <c r="C268" s="31"/>
       <c r="D268" s="31"/>
       <c r="E268" s="31"/>
@@ -38560,7 +38572,7 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="38"/>
+      <c r="A269" s="5"/>
       <c r="C269" s="31"/>
       <c r="D269" s="31"/>
       <c r="E269" s="31"/>
@@ -38575,7 +38587,7 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="38"/>
+      <c r="A270" s="5"/>
       <c r="C270" s="31"/>
       <c r="D270" s="31"/>
       <c r="E270" s="31"/>
@@ -38590,7 +38602,7 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="38"/>
+      <c r="A271" s="5"/>
       <c r="C271" s="31"/>
       <c r="D271" s="31"/>
       <c r="E271" s="31"/>
@@ -38605,7 +38617,7 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="38"/>
+      <c r="A272" s="5"/>
       <c r="C272" s="31"/>
       <c r="D272" s="31"/>
       <c r="E272" s="31"/>
@@ -38620,7 +38632,7 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="38"/>
+      <c r="A273" s="5"/>
       <c r="C273" s="31"/>
       <c r="D273" s="31"/>
       <c r="E273" s="31"/>
@@ -38635,7 +38647,7 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="38"/>
+      <c r="A274" s="5"/>
       <c r="C274" s="31"/>
       <c r="D274" s="31"/>
       <c r="E274" s="31"/>
@@ -38650,7 +38662,7 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="38"/>
+      <c r="A275" s="5"/>
       <c r="C275" s="31"/>
       <c r="D275" s="31"/>
       <c r="E275" s="31"/>
@@ -38665,7 +38677,7 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="38"/>
+      <c r="A276" s="5"/>
       <c r="C276" s="31"/>
       <c r="D276" s="31"/>
       <c r="E276" s="31"/>
@@ -38680,7 +38692,7 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="38"/>
+      <c r="A277" s="5"/>
       <c r="C277" s="31"/>
       <c r="D277" s="31"/>
       <c r="E277" s="31"/>
@@ -38695,7 +38707,7 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="38"/>
+      <c r="A278" s="5"/>
       <c r="C278" s="31"/>
       <c r="D278" s="31"/>
       <c r="E278" s="31"/>
@@ -38710,7 +38722,7 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="38"/>
+      <c r="A279" s="5"/>
       <c r="C279" s="31"/>
       <c r="D279" s="31"/>
       <c r="E279" s="31"/>
@@ -38725,7 +38737,7 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="38"/>
+      <c r="A280" s="5"/>
       <c r="C280" s="31"/>
       <c r="D280" s="31"/>
       <c r="E280" s="31"/>
@@ -38740,7 +38752,7 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="38"/>
+      <c r="A281" s="5"/>
       <c r="C281" s="31"/>
       <c r="D281" s="31"/>
       <c r="E281" s="31"/>
@@ -38755,7 +38767,7 @@
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="38"/>
+      <c r="A282" s="5"/>
       <c r="C282" s="31"/>
       <c r="D282" s="31"/>
       <c r="E282" s="31"/>
@@ -38770,7 +38782,7 @@
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="38"/>
+      <c r="A283" s="5"/>
       <c r="C283" s="31"/>
       <c r="D283" s="31"/>
       <c r="E283" s="31"/>
@@ -38785,7 +38797,7 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="38"/>
+      <c r="A284" s="5"/>
       <c r="C284" s="31"/>
       <c r="D284" s="31"/>
       <c r="E284" s="31"/>
@@ -38800,7 +38812,7 @@
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="38"/>
+      <c r="A285" s="5"/>
       <c r="C285" s="31"/>
       <c r="D285" s="31"/>
       <c r="E285" s="31"/>
@@ -38815,7 +38827,7 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="38"/>
+      <c r="A286" s="5"/>
       <c r="C286" s="31"/>
       <c r="D286" s="31"/>
       <c r="E286" s="31"/>
@@ -38830,7 +38842,7 @@
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="38"/>
+      <c r="A287" s="5"/>
       <c r="C287" s="31"/>
       <c r="D287" s="31"/>
       <c r="E287" s="31"/>
@@ -38845,7 +38857,7 @@
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="38"/>
+      <c r="A288" s="5"/>
       <c r="C288" s="31"/>
       <c r="D288" s="31"/>
       <c r="E288" s="31"/>
@@ -38860,7 +38872,7 @@
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="38"/>
+      <c r="A289" s="5"/>
       <c r="C289" s="31"/>
       <c r="D289" s="31"/>
       <c r="E289" s="31"/>
@@ -38875,7 +38887,7 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="38"/>
+      <c r="A290" s="5"/>
       <c r="C290" s="31"/>
       <c r="D290" s="31"/>
       <c r="E290" s="31"/>
@@ -38890,7 +38902,7 @@
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="38"/>
+      <c r="A291" s="5"/>
       <c r="C291" s="31"/>
       <c r="D291" s="31"/>
       <c r="E291" s="31"/>
@@ -38905,7 +38917,7 @@
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="38"/>
+      <c r="A292" s="5"/>
       <c r="C292" s="31"/>
       <c r="D292" s="31"/>
       <c r="E292" s="31"/>
@@ -38920,7 +38932,7 @@
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="38"/>
+      <c r="A293" s="5"/>
       <c r="C293" s="31"/>
       <c r="D293" s="31"/>
       <c r="E293" s="31"/>
@@ -38935,7 +38947,7 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="38"/>
+      <c r="A294" s="5"/>
       <c r="C294" s="31"/>
       <c r="D294" s="31"/>
       <c r="E294" s="31"/>
@@ -38950,7 +38962,7 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="38"/>
+      <c r="A295" s="5"/>
       <c r="C295" s="31"/>
       <c r="D295" s="31"/>
       <c r="E295" s="31"/>
@@ -38965,7 +38977,7 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="38"/>
+      <c r="A296" s="5"/>
       <c r="C296" s="31"/>
       <c r="D296" s="31"/>
       <c r="E296" s="31"/>
@@ -38980,7 +38992,7 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="38"/>
+      <c r="A297" s="5"/>
       <c r="C297" s="31"/>
       <c r="D297" s="31"/>
       <c r="E297" s="31"/>
@@ -38995,7 +39007,7 @@
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="38"/>
+      <c r="A298" s="5"/>
       <c r="C298" s="31"/>
       <c r="D298" s="31"/>
       <c r="E298" s="31"/>
@@ -39010,7 +39022,7 @@
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="38"/>
+      <c r="A299" s="5"/>
       <c r="C299" s="31"/>
       <c r="D299" s="31"/>
       <c r="E299" s="31"/>
@@ -39025,7 +39037,7 @@
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="38"/>
+      <c r="A300" s="5"/>
       <c r="C300" s="31"/>
       <c r="D300" s="31"/>
       <c r="E300" s="31"/>
@@ -39040,7 +39052,7 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="38"/>
+      <c r="A301" s="5"/>
       <c r="C301" s="31"/>
       <c r="D301" s="31"/>
       <c r="E301" s="31"/>
@@ -39055,7 +39067,7 @@
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="38"/>
+      <c r="A302" s="5"/>
       <c r="C302" s="31"/>
       <c r="D302" s="31"/>
       <c r="E302" s="31"/>
@@ -39070,7 +39082,7 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="38"/>
+      <c r="A303" s="5"/>
       <c r="C303" s="31"/>
       <c r="D303" s="31"/>
       <c r="E303" s="31"/>
@@ -39085,7 +39097,7 @@
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="38"/>
+      <c r="A304" s="5"/>
       <c r="C304" s="31"/>
       <c r="D304" s="31"/>
       <c r="E304" s="31"/>
@@ -39100,7 +39112,7 @@
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="38"/>
+      <c r="A305" s="5"/>
       <c r="C305" s="31"/>
       <c r="D305" s="31"/>
       <c r="E305" s="31"/>
@@ -39115,7 +39127,7 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="38"/>
+      <c r="A306" s="5"/>
       <c r="C306" s="31"/>
       <c r="D306" s="31"/>
       <c r="E306" s="31"/>
@@ -39130,7 +39142,7 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="38"/>
+      <c r="A307" s="5"/>
       <c r="C307" s="31"/>
       <c r="D307" s="31"/>
       <c r="E307" s="31"/>
@@ -39145,7 +39157,7 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="38"/>
+      <c r="A308" s="5"/>
       <c r="C308" s="31"/>
       <c r="D308" s="31"/>
       <c r="E308" s="31"/>
@@ -39160,7 +39172,7 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="38"/>
+      <c r="A309" s="5"/>
       <c r="C309" s="31"/>
       <c r="D309" s="31"/>
       <c r="E309" s="31"/>
@@ -39175,7 +39187,7 @@
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="38"/>
+      <c r="A310" s="5"/>
       <c r="C310" s="31"/>
       <c r="D310" s="31"/>
       <c r="E310" s="31"/>
@@ -39190,7 +39202,7 @@
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="38"/>
+      <c r="A311" s="5"/>
       <c r="C311" s="31"/>
       <c r="D311" s="31"/>
       <c r="E311" s="31"/>
@@ -39205,7 +39217,7 @@
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="38"/>
+      <c r="A312" s="5"/>
       <c r="C312" s="31"/>
       <c r="D312" s="31"/>
       <c r="E312" s="31"/>
@@ -39220,7 +39232,7 @@
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="38"/>
+      <c r="A313" s="5"/>
       <c r="C313" s="31"/>
       <c r="D313" s="31"/>
       <c r="E313" s="31"/>
@@ -39235,7 +39247,7 @@
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="38"/>
+      <c r="A314" s="5"/>
       <c r="C314" s="31"/>
       <c r="D314" s="31"/>
       <c r="E314" s="31"/>
@@ -39250,7 +39262,7 @@
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="38"/>
+      <c r="A315" s="5"/>
       <c r="C315" s="31"/>
       <c r="D315" s="31"/>
       <c r="E315" s="31"/>
@@ -39265,7 +39277,7 @@
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="38"/>
+      <c r="A316" s="5"/>
       <c r="C316" s="31"/>
       <c r="D316" s="31"/>
       <c r="E316" s="31"/>
@@ -39280,7 +39292,7 @@
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="38"/>
+      <c r="A317" s="5"/>
       <c r="C317" s="31"/>
       <c r="D317" s="31"/>
       <c r="E317" s="31"/>
@@ -39295,7 +39307,7 @@
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="38"/>
+      <c r="A318" s="5"/>
       <c r="C318" s="31"/>
       <c r="D318" s="31"/>
       <c r="E318" s="31"/>
@@ -39310,7 +39322,7 @@
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="38"/>
+      <c r="A319" s="5"/>
       <c r="C319" s="31"/>
       <c r="D319" s="31"/>
       <c r="E319" s="31"/>
@@ -39325,7 +39337,7 @@
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="38"/>
+      <c r="A320" s="5"/>
       <c r="C320" s="31"/>
       <c r="D320" s="31"/>
       <c r="E320" s="31"/>
@@ -39340,7 +39352,7 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="38"/>
+      <c r="A321" s="5"/>
       <c r="C321" s="31"/>
       <c r="D321" s="31"/>
       <c r="E321" s="31"/>
@@ -39355,7 +39367,7 @@
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="38"/>
+      <c r="A322" s="5"/>
       <c r="C322" s="31"/>
       <c r="D322" s="31"/>
       <c r="E322" s="31"/>
@@ -39370,7 +39382,7 @@
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="38"/>
+      <c r="A323" s="5"/>
       <c r="C323" s="31"/>
       <c r="D323" s="31"/>
       <c r="E323" s="31"/>
@@ -39385,7 +39397,7 @@
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="38"/>
+      <c r="A324" s="5"/>
       <c r="C324" s="31"/>
       <c r="D324" s="31"/>
       <c r="E324" s="31"/>
@@ -39400,7 +39412,7 @@
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="38"/>
+      <c r="A325" s="5"/>
       <c r="C325" s="31"/>
       <c r="D325" s="31"/>
       <c r="E325" s="31"/>
@@ -39415,7 +39427,7 @@
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="38"/>
+      <c r="A326" s="5"/>
       <c r="C326" s="31"/>
       <c r="D326" s="31"/>
       <c r="E326" s="31"/>
@@ -39430,7 +39442,7 @@
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="38"/>
+      <c r="A327" s="5"/>
       <c r="C327" s="31"/>
       <c r="D327" s="31"/>
       <c r="E327" s="31"/>
@@ -39445,7 +39457,7 @@
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="38"/>
+      <c r="A328" s="5"/>
       <c r="C328" s="31"/>
       <c r="D328" s="31"/>
       <c r="E328" s="31"/>
@@ -39460,7 +39472,7 @@
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="38"/>
+      <c r="A329" s="5"/>
       <c r="C329" s="31"/>
       <c r="D329" s="31"/>
       <c r="E329" s="31"/>
@@ -39475,7 +39487,7 @@
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="38"/>
+      <c r="A330" s="5"/>
       <c r="C330" s="31"/>
       <c r="D330" s="31"/>
       <c r="E330" s="31"/>
@@ -39490,7 +39502,7 @@
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="38"/>
+      <c r="A331" s="5"/>
       <c r="C331" s="31"/>
       <c r="D331" s="31"/>
       <c r="E331" s="31"/>
@@ -39505,7 +39517,7 @@
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="38"/>
+      <c r="A332" s="5"/>
       <c r="C332" s="31"/>
       <c r="D332" s="31"/>
       <c r="E332" s="31"/>
@@ -39520,7 +39532,7 @@
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="38"/>
+      <c r="A333" s="5"/>
       <c r="C333" s="31"/>
       <c r="D333" s="31"/>
       <c r="E333" s="31"/>
@@ -39535,7 +39547,7 @@
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="38"/>
+      <c r="A334" s="5"/>
       <c r="C334" s="31"/>
       <c r="D334" s="31"/>
       <c r="E334" s="31"/>
@@ -39550,7 +39562,7 @@
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="38"/>
+      <c r="A335" s="5"/>
       <c r="C335" s="31"/>
       <c r="D335" s="31"/>
       <c r="E335" s="31"/>
@@ -39565,7 +39577,7 @@
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="38"/>
+      <c r="A336" s="5"/>
       <c r="C336" s="31"/>
       <c r="D336" s="31"/>
       <c r="E336" s="31"/>
@@ -39580,7 +39592,7 @@
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="38"/>
+      <c r="A337" s="5"/>
       <c r="C337" s="31"/>
       <c r="D337" s="31"/>
       <c r="E337" s="31"/>
@@ -39595,7 +39607,7 @@
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="38"/>
+      <c r="A338" s="5"/>
       <c r="C338" s="31"/>
       <c r="D338" s="31"/>
       <c r="E338" s="31"/>
@@ -39610,7 +39622,7 @@
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="38"/>
+      <c r="A339" s="5"/>
       <c r="C339" s="31"/>
       <c r="D339" s="31"/>
       <c r="E339" s="31"/>
@@ -39625,7 +39637,7 @@
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="38"/>
+      <c r="A340" s="5"/>
       <c r="C340" s="31"/>
       <c r="D340" s="31"/>
       <c r="E340" s="31"/>
@@ -39640,7 +39652,7 @@
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="38"/>
+      <c r="A341" s="5"/>
       <c r="C341" s="31"/>
       <c r="D341" s="31"/>
       <c r="E341" s="31"/>
@@ -39655,7 +39667,7 @@
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="38"/>
+      <c r="A342" s="5"/>
       <c r="C342" s="31"/>
       <c r="D342" s="31"/>
       <c r="E342" s="31"/>
@@ -39670,7 +39682,7 @@
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="38"/>
+      <c r="A343" s="5"/>
       <c r="C343" s="31"/>
       <c r="D343" s="31"/>
       <c r="E343" s="31"/>
@@ -39685,7 +39697,7 @@
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="38"/>
+      <c r="A344" s="5"/>
       <c r="C344" s="31"/>
       <c r="D344" s="31"/>
       <c r="E344" s="31"/>
@@ -39700,7 +39712,7 @@
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="38"/>
+      <c r="A345" s="5"/>
       <c r="C345" s="31"/>
       <c r="D345" s="31"/>
       <c r="E345" s="31"/>
@@ -39715,7 +39727,7 @@
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="38"/>
+      <c r="A346" s="5"/>
       <c r="C346" s="31"/>
       <c r="D346" s="31"/>
       <c r="E346" s="31"/>
@@ -39730,7 +39742,7 @@
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="38"/>
+      <c r="A347" s="5"/>
       <c r="C347" s="31"/>
       <c r="D347" s="31"/>
       <c r="E347" s="31"/>
@@ -39745,7 +39757,7 @@
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="38"/>
+      <c r="A348" s="5"/>
       <c r="C348" s="31"/>
       <c r="D348" s="31"/>
       <c r="E348" s="31"/>
@@ -39760,7 +39772,7 @@
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="38"/>
+      <c r="A349" s="5"/>
       <c r="C349" s="31"/>
       <c r="D349" s="31"/>
       <c r="E349" s="31"/>
@@ -39775,7 +39787,7 @@
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="38"/>
+      <c r="A350" s="5"/>
       <c r="C350" s="31"/>
       <c r="D350" s="31"/>
       <c r="E350" s="31"/>
@@ -39790,7 +39802,7 @@
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="38"/>
+      <c r="A351" s="5"/>
       <c r="C351" s="31"/>
       <c r="D351" s="31"/>
       <c r="E351" s="31"/>
@@ -39805,7 +39817,7 @@
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="38"/>
+      <c r="A352" s="5"/>
       <c r="C352" s="31"/>
       <c r="D352" s="31"/>
       <c r="E352" s="31"/>
@@ -39820,7 +39832,7 @@
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="38"/>
+      <c r="A353" s="5"/>
       <c r="C353" s="31"/>
       <c r="D353" s="31"/>
       <c r="E353" s="31"/>
@@ -39835,7 +39847,7 @@
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="38"/>
+      <c r="A354" s="5"/>
       <c r="C354" s="31"/>
       <c r="D354" s="31"/>
       <c r="E354" s="31"/>
@@ -39850,7 +39862,7 @@
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="38"/>
+      <c r="A355" s="5"/>
       <c r="C355" s="31"/>
       <c r="D355" s="31"/>
       <c r="E355" s="31"/>
@@ -39865,7 +39877,7 @@
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="38"/>
+      <c r="A356" s="5"/>
       <c r="C356" s="31"/>
       <c r="D356" s="31"/>
       <c r="E356" s="31"/>
@@ -39880,7 +39892,7 @@
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="38"/>
+      <c r="A357" s="5"/>
       <c r="C357" s="31"/>
       <c r="D357" s="31"/>
       <c r="E357" s="31"/>
@@ -39895,7 +39907,7 @@
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="38"/>
+      <c r="A358" s="5"/>
       <c r="C358" s="31"/>
       <c r="D358" s="31"/>
       <c r="E358" s="31"/>
@@ -39910,7 +39922,7 @@
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="38"/>
+      <c r="A359" s="5"/>
       <c r="C359" s="31"/>
       <c r="D359" s="31"/>
       <c r="E359" s="31"/>
@@ -39925,7 +39937,7 @@
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="38"/>
+      <c r="A360" s="5"/>
       <c r="C360" s="31"/>
       <c r="D360" s="31"/>
       <c r="E360" s="31"/>
@@ -39940,7 +39952,7 @@
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="38"/>
+      <c r="A361" s="5"/>
       <c r="C361" s="31"/>
       <c r="D361" s="31"/>
       <c r="E361" s="31"/>
@@ -39955,7 +39967,7 @@
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="38"/>
+      <c r="A362" s="5"/>
       <c r="C362" s="31"/>
       <c r="D362" s="31"/>
       <c r="E362" s="31"/>
@@ -39970,7 +39982,7 @@
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="38"/>
+      <c r="A363" s="5"/>
       <c r="C363" s="31"/>
       <c r="D363" s="31"/>
       <c r="E363" s="31"/>
@@ -39985,7 +39997,7 @@
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="38"/>
+      <c r="A364" s="5"/>
       <c r="C364" s="31"/>
       <c r="D364" s="31"/>
       <c r="E364" s="31"/>
@@ -40000,7 +40012,7 @@
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="38"/>
+      <c r="A365" s="5"/>
       <c r="C365" s="31"/>
       <c r="D365" s="31"/>
       <c r="E365" s="31"/>
@@ -40015,7 +40027,7 @@
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="38"/>
+      <c r="A366" s="5"/>
       <c r="C366" s="31"/>
       <c r="D366" s="31"/>
       <c r="E366" s="31"/>
@@ -40030,7 +40042,7 @@
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="38"/>
+      <c r="A367" s="5"/>
       <c r="C367" s="31"/>
       <c r="D367" s="31"/>
       <c r="E367" s="31"/>
@@ -40045,7 +40057,7 @@
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="38"/>
+      <c r="A368" s="5"/>
       <c r="C368" s="31"/>
       <c r="D368" s="31"/>
       <c r="E368" s="31"/>
@@ -40060,7 +40072,7 @@
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="38"/>
+      <c r="A369" s="5"/>
       <c r="C369" s="31"/>
       <c r="D369" s="31"/>
       <c r="E369" s="31"/>
@@ -40075,7 +40087,7 @@
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="38"/>
+      <c r="A370" s="5"/>
       <c r="C370" s="31"/>
       <c r="D370" s="31"/>
       <c r="E370" s="31"/>
@@ -40090,7 +40102,7 @@
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="38"/>
+      <c r="A371" s="5"/>
       <c r="C371" s="31"/>
       <c r="D371" s="31"/>
       <c r="E371" s="31"/>
@@ -40105,7 +40117,7 @@
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="38"/>
+      <c r="A372" s="5"/>
       <c r="C372" s="31"/>
       <c r="D372" s="31"/>
       <c r="E372" s="31"/>
@@ -40120,7 +40132,7 @@
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="38"/>
+      <c r="A373" s="5"/>
       <c r="C373" s="31"/>
       <c r="D373" s="31"/>
       <c r="E373" s="31"/>
@@ -40135,7 +40147,7 @@
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="38"/>
+      <c r="A374" s="5"/>
       <c r="C374" s="31"/>
       <c r="D374" s="31"/>
       <c r="E374" s="31"/>
@@ -40150,7 +40162,7 @@
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="38"/>
+      <c r="A375" s="5"/>
       <c r="C375" s="31"/>
       <c r="D375" s="31"/>
       <c r="E375" s="31"/>
@@ -40165,7 +40177,7 @@
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="38"/>
+      <c r="A376" s="5"/>
       <c r="C376" s="31"/>
       <c r="D376" s="31"/>
       <c r="E376" s="31"/>
@@ -40180,7 +40192,7 @@
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="38"/>
+      <c r="A377" s="5"/>
       <c r="C377" s="31"/>
       <c r="D377" s="31"/>
       <c r="E377" s="31"/>
@@ -40195,7 +40207,7 @@
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="38"/>
+      <c r="A378" s="5"/>
       <c r="C378" s="31"/>
       <c r="D378" s="31"/>
       <c r="E378" s="31"/>
@@ -40210,7 +40222,7 @@
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="38"/>
+      <c r="A379" s="5"/>
       <c r="C379" s="31"/>
       <c r="D379" s="31"/>
       <c r="E379" s="31"/>
@@ -40225,7 +40237,7 @@
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="38"/>
+      <c r="A380" s="5"/>
       <c r="C380" s="31"/>
       <c r="D380" s="31"/>
       <c r="E380" s="31"/>
@@ -40240,7 +40252,7 @@
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="38"/>
+      <c r="A381" s="5"/>
       <c r="C381" s="31"/>
       <c r="D381" s="31"/>
       <c r="E381" s="31"/>
@@ -40255,7 +40267,7 @@
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="38"/>
+      <c r="A382" s="5"/>
       <c r="C382" s="31"/>
       <c r="D382" s="31"/>
       <c r="E382" s="31"/>
@@ -40270,7 +40282,7 @@
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="38"/>
+      <c r="A383" s="5"/>
       <c r="C383" s="31"/>
       <c r="D383" s="31"/>
       <c r="E383" s="31"/>
@@ -40285,7 +40297,7 @@
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="38"/>
+      <c r="A384" s="5"/>
       <c r="C384" s="31"/>
       <c r="D384" s="31"/>
       <c r="E384" s="31"/>
@@ -40300,7 +40312,7 @@
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="38"/>
+      <c r="A385" s="5"/>
       <c r="C385" s="31"/>
       <c r="D385" s="31"/>
       <c r="E385" s="31"/>
@@ -40315,7 +40327,7 @@
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="38"/>
+      <c r="A386" s="5"/>
       <c r="C386" s="31"/>
       <c r="D386" s="31"/>
       <c r="E386" s="31"/>
@@ -40330,7 +40342,7 @@
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="38"/>
+      <c r="A387" s="5"/>
       <c r="C387" s="31"/>
       <c r="D387" s="31"/>
       <c r="E387" s="31"/>
@@ -40345,7 +40357,7 @@
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="38"/>
+      <c r="A388" s="5"/>
       <c r="C388" s="31"/>
       <c r="D388" s="31"/>
       <c r="E388" s="31"/>
@@ -40360,7 +40372,7 @@
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="38"/>
+      <c r="A389" s="5"/>
       <c r="C389" s="31"/>
       <c r="D389" s="31"/>
       <c r="E389" s="31"/>
@@ -40375,7 +40387,7 @@
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="38"/>
+      <c r="A390" s="5"/>
       <c r="C390" s="31"/>
       <c r="D390" s="31"/>
       <c r="E390" s="31"/>
@@ -40390,7 +40402,7 @@
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="38"/>
+      <c r="A391" s="5"/>
       <c r="C391" s="31"/>
       <c r="D391" s="31"/>
       <c r="E391" s="31"/>
@@ -40405,7 +40417,7 @@
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="38"/>
+      <c r="A392" s="5"/>
       <c r="C392" s="31"/>
       <c r="D392" s="31"/>
       <c r="E392" s="31"/>
@@ -40420,7 +40432,7 @@
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="38"/>
+      <c r="A393" s="5"/>
       <c r="C393" s="31"/>
       <c r="D393" s="31"/>
       <c r="E393" s="31"/>
@@ -40435,7 +40447,7 @@
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="38"/>
+      <c r="A394" s="5"/>
       <c r="C394" s="31"/>
       <c r="D394" s="31"/>
       <c r="E394" s="31"/>
@@ -40450,7 +40462,7 @@
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="38"/>
+      <c r="A395" s="5"/>
       <c r="C395" s="31"/>
       <c r="D395" s="31"/>
       <c r="E395" s="31"/>
@@ -40465,7 +40477,7 @@
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="38"/>
+      <c r="A396" s="5"/>
       <c r="C396" s="31"/>
       <c r="D396" s="31"/>
       <c r="E396" s="31"/>
@@ -40480,7 +40492,7 @@
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="38"/>
+      <c r="A397" s="5"/>
       <c r="C397" s="31"/>
       <c r="D397" s="31"/>
       <c r="E397" s="31"/>
@@ -40495,7 +40507,7 @@
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="38"/>
+      <c r="A398" s="5"/>
       <c r="C398" s="31"/>
       <c r="D398" s="31"/>
       <c r="E398" s="31"/>
@@ -40510,7 +40522,7 @@
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="38"/>
+      <c r="A399" s="5"/>
       <c r="C399" s="31"/>
       <c r="D399" s="31"/>
       <c r="E399" s="31"/>
@@ -40525,7 +40537,7 @@
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="38"/>
+      <c r="A400" s="5"/>
       <c r="C400" s="31"/>
       <c r="D400" s="31"/>
       <c r="E400" s="31"/>
@@ -40540,7 +40552,7 @@
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="38"/>
+      <c r="A401" s="5"/>
       <c r="C401" s="31"/>
       <c r="D401" s="31"/>
       <c r="E401" s="31"/>
@@ -40555,7 +40567,7 @@
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="38"/>
+      <c r="A402" s="5"/>
       <c r="C402" s="31"/>
       <c r="D402" s="31"/>
       <c r="E402" s="31"/>
@@ -40570,7 +40582,7 @@
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="38"/>
+      <c r="A403" s="5"/>
       <c r="C403" s="31"/>
       <c r="D403" s="31"/>
       <c r="E403" s="31"/>
@@ -40585,7 +40597,7 @@
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="38"/>
+      <c r="A404" s="5"/>
       <c r="C404" s="31"/>
       <c r="D404" s="31"/>
       <c r="E404" s="31"/>
@@ -40600,7 +40612,7 @@
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="38"/>
+      <c r="A405" s="5"/>
       <c r="C405" s="31"/>
       <c r="D405" s="31"/>
       <c r="E405" s="31"/>
@@ -40615,7 +40627,7 @@
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="38"/>
+      <c r="A406" s="5"/>
       <c r="C406" s="31"/>
       <c r="D406" s="31"/>
       <c r="E406" s="31"/>
@@ -40630,7 +40642,7 @@
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="38"/>
+      <c r="A407" s="5"/>
       <c r="C407" s="31"/>
       <c r="D407" s="31"/>
       <c r="E407" s="31"/>
@@ -40645,7 +40657,7 @@
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="38"/>
+      <c r="A408" s="5"/>
       <c r="C408" s="31"/>
       <c r="D408" s="31"/>
       <c r="E408" s="31"/>
@@ -40660,7 +40672,7 @@
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="38"/>
+      <c r="A409" s="5"/>
       <c r="C409" s="31"/>
       <c r="D409" s="31"/>
       <c r="E409" s="31"/>
@@ -40675,7 +40687,7 @@
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="38"/>
+      <c r="A410" s="5"/>
       <c r="C410" s="31"/>
       <c r="D410" s="31"/>
       <c r="E410" s="31"/>
@@ -40690,7 +40702,7 @@
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="38"/>
+      <c r="A411" s="5"/>
       <c r="C411" s="31"/>
       <c r="D411" s="31"/>
       <c r="E411" s="31"/>
@@ -40705,7 +40717,7 @@
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="38"/>
+      <c r="A412" s="5"/>
       <c r="C412" s="31"/>
       <c r="D412" s="31"/>
       <c r="E412" s="31"/>
@@ -40720,7 +40732,7 @@
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="38"/>
+      <c r="A413" s="5"/>
       <c r="C413" s="31"/>
       <c r="D413" s="31"/>
       <c r="E413" s="31"/>
@@ -40735,7 +40747,7 @@
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="38"/>
+      <c r="A414" s="5"/>
       <c r="C414" s="31"/>
       <c r="D414" s="31"/>
       <c r="E414" s="31"/>
@@ -40750,7 +40762,7 @@
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="38"/>
+      <c r="A415" s="5"/>
       <c r="C415" s="31"/>
       <c r="D415" s="31"/>
       <c r="E415" s="31"/>
@@ -40765,7 +40777,7 @@
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="38"/>
+      <c r="A416" s="5"/>
       <c r="C416" s="31"/>
       <c r="D416" s="31"/>
       <c r="E416" s="31"/>
@@ -40780,7 +40792,7 @@
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="38"/>
+      <c r="A417" s="5"/>
       <c r="C417" s="31"/>
       <c r="D417" s="31"/>
       <c r="E417" s="31"/>
@@ -40795,7 +40807,7 @@
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="38"/>
+      <c r="A418" s="5"/>
       <c r="C418" s="31"/>
       <c r="D418" s="31"/>
       <c r="E418" s="31"/>
@@ -40810,7 +40822,7 @@
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="38"/>
+      <c r="A419" s="5"/>
       <c r="C419" s="31"/>
       <c r="D419" s="31"/>
       <c r="E419" s="31"/>
@@ -40825,7 +40837,7 @@
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="38"/>
+      <c r="A420" s="5"/>
       <c r="C420" s="31"/>
       <c r="D420" s="31"/>
       <c r="E420" s="31"/>
@@ -40840,7 +40852,7 @@
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="38"/>
+      <c r="A421" s="5"/>
       <c r="C421" s="31"/>
       <c r="D421" s="31"/>
       <c r="E421" s="31"/>
@@ -40855,7 +40867,7 @@
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="38"/>
+      <c r="A422" s="5"/>
       <c r="C422" s="31"/>
       <c r="D422" s="31"/>
       <c r="E422" s="31"/>
@@ -40870,7 +40882,7 @@
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="38"/>
+      <c r="A423" s="5"/>
       <c r="C423" s="31"/>
       <c r="D423" s="31"/>
       <c r="E423" s="31"/>
@@ -40885,7 +40897,7 @@
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="38"/>
+      <c r="A424" s="5"/>
       <c r="C424" s="31"/>
       <c r="D424" s="31"/>
       <c r="E424" s="31"/>
@@ -40900,7 +40912,7 @@
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="38"/>
+      <c r="A425" s="5"/>
       <c r="C425" s="31"/>
       <c r="D425" s="31"/>
       <c r="E425" s="31"/>
@@ -40915,7 +40927,7 @@
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="38"/>
+      <c r="A426" s="5"/>
       <c r="C426" s="31"/>
       <c r="D426" s="31"/>
       <c r="E426" s="31"/>
@@ -40930,7 +40942,7 @@
       </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="38"/>
+      <c r="A427" s="5"/>
       <c r="C427" s="31"/>
       <c r="D427" s="31"/>
       <c r="E427" s="31"/>
@@ -40945,7 +40957,7 @@
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="38"/>
+      <c r="A428" s="5"/>
       <c r="C428" s="31"/>
       <c r="D428" s="31"/>
       <c r="E428" s="31"/>
@@ -40960,7 +40972,7 @@
       </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="38"/>
+      <c r="A429" s="5"/>
       <c r="C429" s="31"/>
       <c r="D429" s="31"/>
       <c r="E429" s="31"/>
@@ -40975,7 +40987,7 @@
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="38"/>
+      <c r="A430" s="5"/>
       <c r="C430" s="31"/>
       <c r="D430" s="31"/>
       <c r="E430" s="31"/>
@@ -40990,7 +41002,7 @@
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="38"/>
+      <c r="A431" s="5"/>
       <c r="C431" s="31"/>
       <c r="D431" s="31"/>
       <c r="E431" s="31"/>
@@ -41005,7 +41017,7 @@
       </c>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="38"/>
+      <c r="A432" s="5"/>
       <c r="C432" s="31"/>
       <c r="D432" s="31"/>
       <c r="E432" s="31"/>
@@ -41020,7 +41032,7 @@
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="38"/>
+      <c r="A433" s="5"/>
       <c r="C433" s="31"/>
       <c r="D433" s="31"/>
       <c r="E433" s="31"/>
@@ -41035,7 +41047,7 @@
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="38"/>
+      <c r="A434" s="5"/>
       <c r="C434" s="31"/>
       <c r="D434" s="31"/>
       <c r="E434" s="31"/>
@@ -41050,7 +41062,7 @@
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="38"/>
+      <c r="A435" s="5"/>
       <c r="C435" s="31"/>
       <c r="D435" s="31"/>
       <c r="E435" s="31"/>
@@ -41065,7 +41077,7 @@
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="38"/>
+      <c r="A436" s="5"/>
       <c r="C436" s="31"/>
       <c r="D436" s="31"/>
       <c r="E436" s="31"/>
@@ -41080,7 +41092,7 @@
       </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="38"/>
+      <c r="A437" s="5"/>
       <c r="C437" s="31"/>
       <c r="D437" s="31"/>
       <c r="E437" s="31"/>
@@ -41095,7 +41107,7 @@
       </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="38"/>
+      <c r="A438" s="5"/>
       <c r="C438" s="31"/>
       <c r="D438" s="31"/>
       <c r="E438" s="31"/>
@@ -41110,7 +41122,7 @@
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="38"/>
+      <c r="A439" s="5"/>
       <c r="C439" s="31"/>
       <c r="D439" s="31"/>
       <c r="E439" s="31"/>
@@ -41125,7 +41137,7 @@
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="38"/>
+      <c r="A440" s="5"/>
       <c r="C440" s="31"/>
       <c r="D440" s="31"/>
       <c r="E440" s="31"/>
@@ -41140,7 +41152,7 @@
       </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="38"/>
+      <c r="A441" s="5"/>
       <c r="C441" s="31"/>
       <c r="D441" s="31"/>
       <c r="E441" s="31"/>
@@ -41155,7 +41167,7 @@
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="38"/>
+      <c r="A442" s="5"/>
       <c r="C442" s="31"/>
       <c r="D442" s="31"/>
       <c r="E442" s="31"/>
@@ -41170,7 +41182,7 @@
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="38"/>
+      <c r="A443" s="5"/>
       <c r="C443" s="31"/>
       <c r="D443" s="31"/>
       <c r="E443" s="31"/>
@@ -41185,7 +41197,7 @@
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="38"/>
+      <c r="A444" s="5"/>
       <c r="C444" s="31"/>
       <c r="D444" s="31"/>
       <c r="E444" s="31"/>
@@ -41200,7 +41212,7 @@
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="38"/>
+      <c r="A445" s="5"/>
       <c r="C445" s="31"/>
       <c r="D445" s="31"/>
       <c r="E445" s="31"/>
@@ -41215,7 +41227,7 @@
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="38"/>
+      <c r="A446" s="5"/>
       <c r="C446" s="31"/>
       <c r="D446" s="31"/>
       <c r="E446" s="31"/>
@@ -41230,7 +41242,7 @@
       </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="38"/>
+      <c r="A447" s="5"/>
       <c r="C447" s="31"/>
       <c r="D447" s="31"/>
       <c r="E447" s="31"/>
@@ -41245,7 +41257,7 @@
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="38"/>
+      <c r="A448" s="5"/>
       <c r="C448" s="31"/>
       <c r="D448" s="31"/>
       <c r="E448" s="31"/>
@@ -41260,7 +41272,7 @@
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="38"/>
+      <c r="A449" s="5"/>
       <c r="C449" s="31"/>
       <c r="D449" s="31"/>
       <c r="E449" s="31"/>
@@ -41275,7 +41287,7 @@
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="38"/>
+      <c r="A450" s="5"/>
       <c r="C450" s="31"/>
       <c r="D450" s="31"/>
       <c r="E450" s="31"/>
@@ -41290,7 +41302,7 @@
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="38"/>
+      <c r="A451" s="5"/>
       <c r="C451" s="31"/>
       <c r="D451" s="31"/>
       <c r="E451" s="31"/>
@@ -41305,7 +41317,7 @@
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="38"/>
+      <c r="A452" s="5"/>
       <c r="C452" s="31"/>
       <c r="D452" s="31"/>
       <c r="E452" s="31"/>
@@ -41320,7 +41332,7 @@
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="38"/>
+      <c r="A453" s="5"/>
       <c r="C453" s="31"/>
       <c r="D453" s="31"/>
       <c r="E453" s="31"/>
@@ -41335,7 +41347,7 @@
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="38"/>
+      <c r="A454" s="5"/>
       <c r="C454" s="31"/>
       <c r="D454" s="31"/>
       <c r="E454" s="31"/>
@@ -41350,7 +41362,7 @@
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="38"/>
+      <c r="A455" s="5"/>
       <c r="C455" s="31"/>
       <c r="D455" s="31"/>
       <c r="E455" s="31"/>
@@ -41365,7 +41377,7 @@
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="38"/>
+      <c r="A456" s="5"/>
       <c r="C456" s="31"/>
       <c r="D456" s="31"/>
       <c r="E456" s="31"/>
@@ -41380,7 +41392,7 @@
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="38"/>
+      <c r="A457" s="5"/>
       <c r="C457" s="31"/>
       <c r="D457" s="31"/>
       <c r="E457" s="31"/>
@@ -41395,7 +41407,7 @@
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="38"/>
+      <c r="A458" s="5"/>
       <c r="C458" s="31"/>
       <c r="D458" s="31"/>
       <c r="E458" s="31"/>
@@ -41410,7 +41422,7 @@
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="38"/>
+      <c r="A459" s="5"/>
       <c r="C459" s="31"/>
       <c r="D459" s="31"/>
       <c r="E459" s="31"/>
@@ -41425,7 +41437,7 @@
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="38"/>
+      <c r="A460" s="5"/>
       <c r="C460" s="31"/>
       <c r="D460" s="31"/>
       <c r="E460" s="31"/>
@@ -41440,7 +41452,7 @@
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="38"/>
+      <c r="A461" s="5"/>
       <c r="C461" s="31"/>
       <c r="D461" s="31"/>
       <c r="E461" s="31"/>
@@ -41455,7 +41467,7 @@
       </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="38"/>
+      <c r="A462" s="5"/>
       <c r="C462" s="31"/>
       <c r="D462" s="31"/>
       <c r="E462" s="31"/>
@@ -41470,7 +41482,7 @@
       </c>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="38"/>
+      <c r="A463" s="5"/>
       <c r="C463" s="31"/>
       <c r="D463" s="31"/>
       <c r="E463" s="31"/>
@@ -41485,7 +41497,7 @@
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="38"/>
+      <c r="A464" s="5"/>
       <c r="C464" s="31"/>
       <c r="D464" s="31"/>
       <c r="E464" s="31"/>
@@ -41500,7 +41512,7 @@
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="38"/>
+      <c r="A465" s="5"/>
       <c r="C465" s="31"/>
       <c r="D465" s="31"/>
       <c r="E465" s="31"/>
@@ -41515,7 +41527,7 @@
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="38"/>
+      <c r="A466" s="5"/>
       <c r="C466" s="31"/>
       <c r="D466" s="31"/>
       <c r="E466" s="31"/>
@@ -41530,7 +41542,7 @@
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="38"/>
+      <c r="A467" s="5"/>
       <c r="C467" s="31"/>
       <c r="D467" s="31"/>
       <c r="E467" s="31"/>
@@ -41545,7 +41557,7 @@
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="38"/>
+      <c r="A468" s="5"/>
       <c r="C468" s="31"/>
       <c r="D468" s="31"/>
       <c r="E468" s="31"/>
@@ -41560,7 +41572,7 @@
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="38"/>
+      <c r="A469" s="5"/>
       <c r="C469" s="31"/>
       <c r="D469" s="31"/>
       <c r="E469" s="31"/>
@@ -41575,7 +41587,7 @@
       </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="38"/>
+      <c r="A470" s="5"/>
       <c r="C470" s="31"/>
       <c r="D470" s="31"/>
       <c r="E470" s="31"/>
@@ -41590,7 +41602,7 @@
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="38"/>
+      <c r="A471" s="5"/>
       <c r="C471" s="31"/>
       <c r="D471" s="31"/>
       <c r="E471" s="31"/>
@@ -41605,7 +41617,7 @@
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="38"/>
+      <c r="A472" s="5"/>
       <c r="C472" s="31"/>
       <c r="D472" s="31"/>
       <c r="E472" s="31"/>
@@ -41620,7 +41632,7 @@
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="38"/>
+      <c r="A473" s="5"/>
       <c r="C473" s="31"/>
       <c r="D473" s="31"/>
       <c r="E473" s="31"/>
@@ -41635,7 +41647,7 @@
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="38"/>
+      <c r="A474" s="5"/>
       <c r="C474" s="31"/>
       <c r="D474" s="31"/>
       <c r="E474" s="31"/>
@@ -41650,7 +41662,7 @@
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="38"/>
+      <c r="A475" s="5"/>
       <c r="C475" s="31"/>
       <c r="D475" s="31"/>
       <c r="E475" s="31"/>
@@ -41665,7 +41677,7 @@
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="38"/>
+      <c r="A476" s="5"/>
       <c r="C476" s="31"/>
       <c r="D476" s="31"/>
       <c r="E476" s="31"/>
@@ -41680,7 +41692,7 @@
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="38"/>
+      <c r="A477" s="5"/>
       <c r="C477" s="31"/>
       <c r="D477" s="31"/>
       <c r="E477" s="31"/>
@@ -41695,7 +41707,7 @@
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="38"/>
+      <c r="A478" s="5"/>
       <c r="C478" s="31"/>
       <c r="D478" s="31"/>
       <c r="E478" s="31"/>
@@ -41710,7 +41722,7 @@
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="38"/>
+      <c r="A479" s="5"/>
       <c r="C479" s="31"/>
       <c r="D479" s="31"/>
       <c r="E479" s="31"/>
@@ -41725,7 +41737,7 @@
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="38"/>
+      <c r="A480" s="5"/>
       <c r="C480" s="31"/>
       <c r="D480" s="31"/>
       <c r="E480" s="31"/>
@@ -41740,7 +41752,7 @@
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="38"/>
+      <c r="A481" s="5"/>
       <c r="C481" s="31"/>
       <c r="D481" s="31"/>
       <c r="E481" s="31"/>
@@ -41755,7 +41767,7 @@
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="38"/>
+      <c r="A482" s="5"/>
       <c r="C482" s="31"/>
       <c r="D482" s="31"/>
       <c r="E482" s="31"/>
@@ -41770,7 +41782,7 @@
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="38"/>
+      <c r="A483" s="5"/>
       <c r="C483" s="31"/>
       <c r="D483" s="31"/>
       <c r="E483" s="31"/>
@@ -41785,7 +41797,7 @@
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="38"/>
+      <c r="A484" s="5"/>
       <c r="C484" s="31"/>
       <c r="D484" s="31"/>
       <c r="E484" s="31"/>
@@ -41800,7 +41812,7 @@
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="38"/>
+      <c r="A485" s="5"/>
       <c r="C485" s="31"/>
       <c r="D485" s="31"/>
       <c r="E485" s="31"/>
@@ -41815,7 +41827,7 @@
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="38"/>
+      <c r="A486" s="5"/>
       <c r="C486" s="31"/>
       <c r="D486" s="31"/>
       <c r="E486" s="31"/>
@@ -41830,7 +41842,7 @@
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="38"/>
+      <c r="A487" s="5"/>
       <c r="C487" s="31"/>
       <c r="D487" s="31"/>
       <c r="E487" s="31"/>
@@ -41845,7 +41857,7 @@
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="38"/>
+      <c r="A488" s="5"/>
       <c r="C488" s="31"/>
       <c r="D488" s="31"/>
       <c r="E488" s="31"/>
@@ -41860,7 +41872,7 @@
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="38"/>
+      <c r="A489" s="5"/>
       <c r="C489" s="31"/>
       <c r="D489" s="31"/>
       <c r="E489" s="31"/>
@@ -41875,7 +41887,7 @@
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="38"/>
+      <c r="A490" s="5"/>
       <c r="C490" s="31"/>
       <c r="D490" s="31"/>
       <c r="E490" s="31"/>
@@ -41890,7 +41902,7 @@
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="38"/>
+      <c r="A491" s="5"/>
       <c r="C491" s="31"/>
       <c r="D491" s="31"/>
       <c r="E491" s="31"/>
@@ -41905,7 +41917,7 @@
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="38"/>
+      <c r="A492" s="5"/>
       <c r="C492" s="31"/>
       <c r="D492" s="31"/>
       <c r="E492" s="31"/>
@@ -41920,7 +41932,7 @@
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="38"/>
+      <c r="A493" s="5"/>
       <c r="C493" s="31"/>
       <c r="D493" s="31"/>
       <c r="E493" s="31"/>
@@ -41935,7 +41947,7 @@
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="38"/>
+      <c r="A494" s="5"/>
       <c r="C494" s="31"/>
       <c r="D494" s="31"/>
       <c r="E494" s="31"/>
@@ -41950,7 +41962,7 @@
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="38"/>
+      <c r="A495" s="5"/>
       <c r="C495" s="31"/>
       <c r="D495" s="31"/>
       <c r="E495" s="31"/>
@@ -41965,7 +41977,7 @@
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="38"/>
+      <c r="A496" s="5"/>
       <c r="C496" s="31"/>
       <c r="D496" s="31"/>
       <c r="E496" s="31"/>
@@ -41980,7 +41992,7 @@
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="38"/>
+      <c r="A497" s="5"/>
       <c r="C497" s="31"/>
       <c r="D497" s="31"/>
       <c r="E497" s="31"/>
@@ -41995,7 +42007,7 @@
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="38"/>
+      <c r="A498" s="5"/>
       <c r="C498" s="31"/>
       <c r="D498" s="31"/>
       <c r="E498" s="31"/>
@@ -42010,7 +42022,7 @@
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="38"/>
+      <c r="A499" s="5"/>
       <c r="C499" s="31"/>
       <c r="D499" s="31"/>
       <c r="E499" s="31"/>
@@ -42025,7 +42037,7 @@
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="38"/>
+      <c r="A500" s="5"/>
       <c r="C500" s="31"/>
       <c r="D500" s="31"/>
       <c r="E500" s="31"/>
@@ -42040,7 +42052,7 @@
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="38"/>
+      <c r="A501" s="5"/>
       <c r="C501" s="31"/>
       <c r="D501" s="31"/>
       <c r="E501" s="31"/>
@@ -42055,7 +42067,7 @@
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="38"/>
+      <c r="A502" s="5"/>
       <c r="C502" s="31"/>
       <c r="D502" s="31"/>
       <c r="E502" s="31"/>
@@ -42070,7 +42082,7 @@
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="38"/>
+      <c r="A503" s="5"/>
       <c r="C503" s="31"/>
       <c r="D503" s="31"/>
       <c r="E503" s="31"/>
@@ -42085,7 +42097,7 @@
       </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="38"/>
+      <c r="A504" s="5"/>
       <c r="C504" s="31"/>
       <c r="D504" s="31"/>
       <c r="E504" s="31"/>
@@ -42100,7 +42112,7 @@
       </c>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="38"/>
+      <c r="A505" s="5"/>
       <c r="C505" s="31"/>
       <c r="D505" s="31"/>
       <c r="E505" s="31"/>
@@ -42115,7 +42127,7 @@
       </c>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="38"/>
+      <c r="A506" s="5"/>
       <c r="C506" s="31"/>
       <c r="D506" s="31"/>
       <c r="E506" s="31"/>
@@ -42130,7 +42142,7 @@
       </c>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="38"/>
+      <c r="A507" s="5"/>
       <c r="C507" s="31"/>
       <c r="D507" s="31"/>
       <c r="E507" s="31"/>
@@ -42145,7 +42157,7 @@
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="38"/>
+      <c r="A508" s="5"/>
       <c r="C508" s="31"/>
       <c r="D508" s="31"/>
       <c r="E508" s="31"/>
@@ -42160,7 +42172,7 @@
       </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="38"/>
+      <c r="A509" s="5"/>
       <c r="C509" s="31"/>
       <c r="D509" s="31"/>
       <c r="E509" s="31"/>
@@ -42175,7 +42187,7 @@
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="38"/>
+      <c r="A510" s="5"/>
       <c r="C510" s="31"/>
       <c r="D510" s="31"/>
       <c r="E510" s="31"/>
@@ -42190,7 +42202,7 @@
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="38"/>
+      <c r="A511" s="5"/>
       <c r="C511" s="31"/>
       <c r="D511" s="31"/>
       <c r="E511" s="31"/>
@@ -42205,7 +42217,7 @@
       </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="38"/>
+      <c r="A512" s="5"/>
       <c r="C512" s="31"/>
       <c r="D512" s="31"/>
       <c r="E512" s="31"/>
@@ -42220,7 +42232,7 @@
       </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="38"/>
+      <c r="A513" s="5"/>
       <c r="C513" s="31"/>
       <c r="D513" s="31"/>
       <c r="E513" s="31"/>
@@ -42235,7 +42247,7 @@
       </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="38"/>
+      <c r="A514" s="5"/>
       <c r="C514" s="31"/>
       <c r="D514" s="31"/>
       <c r="E514" s="31"/>
@@ -42250,7 +42262,7 @@
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="38"/>
+      <c r="A515" s="5"/>
       <c r="C515" s="31"/>
       <c r="D515" s="31"/>
       <c r="E515" s="31"/>
@@ -42265,7 +42277,7 @@
       </c>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="38"/>
+      <c r="A516" s="5"/>
       <c r="C516" s="31"/>
       <c r="D516" s="31"/>
       <c r="E516" s="31"/>
@@ -42280,7 +42292,7 @@
       </c>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="38"/>
+      <c r="A517" s="5"/>
       <c r="C517" s="31"/>
       <c r="D517" s="31"/>
       <c r="E517" s="31"/>
@@ -42295,7 +42307,7 @@
       </c>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="38"/>
+      <c r="A518" s="5"/>
       <c r="C518" s="31"/>
       <c r="D518" s="31"/>
       <c r="E518" s="31"/>
@@ -42310,7 +42322,7 @@
       </c>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="38"/>
+      <c r="A519" s="5"/>
       <c r="C519" s="31"/>
       <c r="D519" s="31"/>
       <c r="E519" s="31"/>
@@ -42325,7 +42337,7 @@
       </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="38"/>
+      <c r="A520" s="5"/>
       <c r="C520" s="31"/>
       <c r="D520" s="31"/>
       <c r="E520" s="31"/>
@@ -42340,7 +42352,7 @@
       </c>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="38"/>
+      <c r="A521" s="5"/>
       <c r="C521" s="31"/>
       <c r="D521" s="31"/>
       <c r="E521" s="31"/>
@@ -42373,22 +42385,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -42425,21 +42437,21 @@
       <c r="B2" s="7"/>
       <c r="C2" s="34" t="n">
         <f aca="false">SUM(C3:C936)</f>
-        <v>1702173.3</v>
+        <v>1747744.3</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="34" t="n">
         <f aca="false">SUM(F3:F936)</f>
-        <v>27772.9867233986</v>
+        <v>28454.8810822195</v>
       </c>
       <c r="G2" s="34" t="n">
         <f aca="false">SUM(G3:G936)</f>
-        <v>24747.7681921377</v>
+        <v>25349.9219976345</v>
       </c>
       <c r="H2" s="34" t="n">
         <f aca="false">SUM(H3:H936)</f>
-        <v>26260.3774577682</v>
+        <v>26902.401539927</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43206,13 +43218,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38" t="n">
+      <c r="A29" s="5" t="n">
         <v>43355</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="C29" s="39" t="n">
+      <c r="C29" s="38" t="n">
         <v>8874.47</v>
       </c>
       <c r="D29" s="31" t="n">
@@ -43235,7 +43247,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="38" t="n">
+      <c r="A30" s="5" t="n">
         <v>43355</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -43264,65 +43276,65 @@
       </c>
     </row>
     <row r="31" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40" t="n">
+      <c r="A31" s="17" t="n">
         <v>43355</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="C31" s="41" t="n">
+      <c r="C31" s="39" t="n">
         <v>8575</v>
       </c>
-      <c r="D31" s="41" t="n">
+      <c r="D31" s="39" t="n">
         <v>69.15</v>
       </c>
-      <c r="E31" s="41" t="n">
+      <c r="E31" s="39" t="n">
         <v>80.11</v>
       </c>
-      <c r="F31" s="41" t="n">
+      <c r="F31" s="39" t="n">
         <f aca="false">C31 / D31</f>
         <v>124.005784526392</v>
       </c>
-      <c r="G31" s="41" t="n">
+      <c r="G31" s="39" t="n">
         <f aca="false">C31 / E31</f>
         <v>107.040319560604</v>
       </c>
-      <c r="H31" s="41" t="n">
+      <c r="H31" s="39" t="n">
         <f aca="false">AVERAGE(F31,G31)</f>
         <v>115.523052043498</v>
       </c>
     </row>
     <row r="32" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="40" t="n">
+      <c r="A32" s="17" t="n">
         <v>43355</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="C32" s="41" t="n">
+      <c r="C32" s="39" t="n">
         <v>257.25</v>
       </c>
-      <c r="D32" s="41" t="n">
+      <c r="D32" s="39" t="n">
         <v>69.15</v>
       </c>
-      <c r="E32" s="41" t="n">
+      <c r="E32" s="39" t="n">
         <v>80.11</v>
       </c>
-      <c r="F32" s="41" t="n">
+      <c r="F32" s="39" t="n">
         <f aca="false">C32 / D32</f>
         <v>3.72017353579176</v>
       </c>
-      <c r="G32" s="41" t="n">
+      <c r="G32" s="39" t="n">
         <f aca="false">C32 / E32</f>
         <v>3.21120958681812</v>
       </c>
-      <c r="H32" s="41" t="n">
+      <c r="H32" s="39" t="n">
         <f aca="false">AVERAGE(F32,G32)</f>
         <v>3.46569156130494</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="38" t="n">
+      <c r="A33" s="5" t="n">
         <v>43362</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -43331,10 +43343,10 @@
       <c r="C33" s="31" t="n">
         <v>30500</v>
       </c>
-      <c r="D33" s="41" t="n">
+      <c r="D33" s="39" t="n">
         <v>66.79</v>
       </c>
-      <c r="E33" s="41" t="n">
+      <c r="E33" s="39" t="n">
         <v>77.97</v>
       </c>
       <c r="F33" s="31" t="n">
@@ -43351,7 +43363,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38" t="n">
+      <c r="A34" s="5" t="n">
         <v>43383</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -43380,7 +43392,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38" t="n">
+      <c r="A35" s="5" t="n">
         <v>43383</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -43409,7 +43421,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="38" t="n">
+      <c r="A36" s="5" t="n">
         <v>43383</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -43467,7 +43479,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="38" t="n">
+      <c r="A38" s="5" t="n">
         <v>43390</v>
       </c>
       <c r="B38" s="0" t="s">
@@ -43496,7 +43508,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="38" t="n">
+      <c r="A39" s="5" t="n">
         <v>43390</v>
       </c>
       <c r="B39" s="0" t="s">
@@ -43525,7 +43537,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="38" t="n">
+      <c r="A40" s="5" t="n">
         <v>43390</v>
       </c>
       <c r="B40" s="0" t="s">
@@ -43554,7 +43566,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="38" t="n">
+      <c r="A41" s="5" t="n">
         <v>43390</v>
       </c>
       <c r="B41" s="0" t="s">
@@ -43612,7 +43624,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="38" t="n">
+      <c r="A43" s="5" t="n">
         <v>43393</v>
       </c>
       <c r="B43" s="0" t="s">
@@ -43641,7 +43653,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="38" t="n">
+      <c r="A44" s="5" t="n">
         <v>43393</v>
       </c>
       <c r="B44" s="0" t="s">
@@ -43670,7 +43682,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="38" t="n">
+      <c r="A45" s="5" t="n">
         <v>43393</v>
       </c>
       <c r="B45" s="0" t="s">
@@ -43699,7 +43711,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="38" t="n">
+      <c r="A46" s="5" t="n">
         <v>43393</v>
       </c>
       <c r="B46" s="30" t="s">
@@ -43728,36 +43740,36 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="38" t="n">
+      <c r="A47" s="5" t="n">
         <v>43395</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="C47" s="42" t="n">
+      <c r="C47" s="31" t="n">
         <v>30428.36</v>
       </c>
-      <c r="D47" s="42" t="n">
+      <c r="D47" s="31" t="n">
         <v>65.23</v>
       </c>
-      <c r="E47" s="42" t="n">
+      <c r="E47" s="31" t="n">
         <v>74.81</v>
       </c>
-      <c r="F47" s="42" t="n">
+      <c r="F47" s="31" t="n">
         <f aca="false">C47 / D47</f>
         <v>466.478000919822</v>
       </c>
-      <c r="G47" s="42" t="n">
+      <c r="G47" s="31" t="n">
         <f aca="false">C47 / E47</f>
         <v>406.741879427884</v>
       </c>
-      <c r="H47" s="42" t="n">
+      <c r="H47" s="31" t="n">
         <f aca="false">AVERAGE(F47,G47)</f>
         <v>436.609940173853</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="38" t="n">
+      <c r="A48" s="5" t="n">
         <v>43396</v>
       </c>
       <c r="B48" s="30" t="s">
@@ -43786,7 +43798,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="38" t="n">
+      <c r="A49" s="5" t="n">
         <v>43397</v>
       </c>
       <c r="B49" s="30" t="s">
@@ -43815,7 +43827,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="38" t="n">
+      <c r="A50" s="5" t="n">
         <v>43397</v>
       </c>
       <c r="B50" s="30" t="s">
@@ -43844,7 +43856,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="38" t="n">
+      <c r="A51" s="5" t="n">
         <v>43398</v>
       </c>
       <c r="B51" s="30" t="s">
@@ -43873,7 +43885,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="38" t="n">
+      <c r="A52" s="5" t="n">
         <v>43400</v>
       </c>
       <c r="B52" s="30" t="s">
@@ -43902,7 +43914,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="38" t="n">
+      <c r="A53" s="5" t="n">
         <v>43400</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -43931,7 +43943,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="38" t="n">
+      <c r="A54" s="5" t="n">
         <v>43402</v>
       </c>
       <c r="B54" s="30" t="s">
@@ -43960,7 +43972,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="38" t="n">
+      <c r="A55" s="5" t="n">
         <v>43408</v>
       </c>
       <c r="B55" s="30" t="s">
@@ -43989,7 +44001,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="38" t="n">
+      <c r="A56" s="5" t="n">
         <v>43412</v>
       </c>
       <c r="B56" s="30" t="s">
@@ -44018,7 +44030,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="38" t="n">
+      <c r="A57" s="5" t="n">
         <v>43417</v>
       </c>
       <c r="B57" s="30" t="s">
@@ -44047,7 +44059,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="38" t="n">
+      <c r="A58" s="5" t="n">
         <v>43417</v>
       </c>
       <c r="B58" s="0" t="s">
@@ -44076,13 +44088,13 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="38" t="n">
+      <c r="A59" s="5" t="n">
         <v>43419</v>
       </c>
       <c r="B59" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="C59" s="42" t="n">
+      <c r="C59" s="31" t="n">
         <v>19587.49</v>
       </c>
       <c r="D59" s="31" t="n">
@@ -44105,7 +44117,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="38" t="n">
+      <c r="A60" s="5" t="n">
         <v>43421</v>
       </c>
       <c r="B60" s="30" t="s">
@@ -44134,7 +44146,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="38" t="n">
+      <c r="A61" s="5" t="n">
         <v>43424</v>
       </c>
       <c r="B61" s="30" t="s">
@@ -44163,7 +44175,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="38" t="n">
+      <c r="A62" s="5" t="n">
         <v>43424</v>
       </c>
       <c r="B62" s="30" t="s">
@@ -44192,13 +44204,13 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="38" t="n">
+      <c r="A63" s="5" t="n">
         <v>43426</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="C63" s="42" t="n">
+      <c r="C63" s="31" t="n">
         <v>30428.36</v>
       </c>
       <c r="D63" s="31" t="n">
@@ -44221,7 +44233,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="38" t="n">
+      <c r="A64" s="5" t="n">
         <v>43426</v>
       </c>
       <c r="B64" s="30" t="s">
@@ -44251,7 +44263,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="38" t="n">
+      <c r="A65" s="5" t="n">
         <v>43426</v>
       </c>
       <c r="B65" s="30" t="s">
@@ -44280,7 +44292,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="38" t="n">
+      <c r="A66" s="5" t="n">
         <v>43426</v>
       </c>
       <c r="B66" s="30" t="s">
@@ -44309,7 +44321,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="38" t="n">
+      <c r="A67" s="5" t="n">
         <v>43426</v>
       </c>
       <c r="B67" s="30" t="s">
@@ -44338,7 +44350,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="38" t="n">
+      <c r="A68" s="5" t="n">
         <v>43426</v>
       </c>
       <c r="B68" s="0" t="s">
@@ -44367,7 +44379,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="38" t="n">
+      <c r="A69" s="5" t="n">
         <v>43430</v>
       </c>
       <c r="B69" s="30" t="s">
@@ -44396,14 +44408,14 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="43" t="n">
+      <c r="A70" s="40" t="n">
         <v>43436</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>316</v>
       </c>
       <c r="C70" s="31" t="n">
-        <f aca="false"> 70 + 72 + 70</f>
+        <f aca="false">70 + 72 + 70</f>
         <v>212</v>
       </c>
       <c r="D70" s="31" t="n">
@@ -44426,14 +44438,14 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="43" t="n">
+      <c r="A71" s="40" t="n">
         <v>43437</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>316</v>
       </c>
       <c r="C71" s="31" t="n">
-        <f aca="false"> 36 + 36 + 36 + 72</f>
+        <f aca="false">36 + 36 + 36 + 72</f>
         <v>180</v>
       </c>
       <c r="D71" s="31" t="n">
@@ -44456,7 +44468,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="43" t="n">
+      <c r="A72" s="40" t="n">
         <v>43437</v>
       </c>
       <c r="B72" s="12" t="s">
@@ -44485,7 +44497,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="43" t="n">
+      <c r="A73" s="40" t="n">
         <v>43437</v>
       </c>
       <c r="B73" s="0" t="s">
@@ -44511,6 +44523,94 @@
       <c r="H73" s="31" t="n">
         <f aca="false">AVERAGE(F73,G73)</f>
         <v>220.309237737372</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="40" t="n">
+        <v>43438</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C74" s="31" t="n">
+        <v>16230</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>66.83</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>75.68</v>
+      </c>
+      <c r="F74" s="31" t="n">
+        <f aca="false">C74 / D74</f>
+        <v>242.855005237169</v>
+      </c>
+      <c r="G74" s="31" t="n">
+        <f aca="false">C74 / E74</f>
+        <v>214.455602536998</v>
+      </c>
+      <c r="H74" s="31" t="n">
+        <f aca="false">AVERAGE(F74,G74)</f>
+        <v>228.655303887083</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="40" t="n">
+        <v>43438</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C75" s="31" t="n">
+        <v>29144</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>66.83</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>75.68</v>
+      </c>
+      <c r="F75" s="31" t="n">
+        <f aca="false">C75 / D75</f>
+        <v>436.091575639683</v>
+      </c>
+      <c r="G75" s="31" t="n">
+        <f aca="false">C75 / E75</f>
+        <v>385.095137420719</v>
+      </c>
+      <c r="H75" s="31" t="n">
+        <f aca="false">AVERAGE(F75,G75)</f>
+        <v>410.593356530201</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="40" t="n">
+        <v>43438</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C76" s="31" t="n">
+        <f aca="false"> 35 + 36 + 36 + 90</f>
+        <v>197</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>66.83</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>75.68</v>
+      </c>
+      <c r="F76" s="31" t="n">
+        <f aca="false">C76 / D76</f>
+        <v>2.94777794403711</v>
+      </c>
+      <c r="G76" s="31" t="n">
+        <f aca="false">C76 / E76</f>
+        <v>2.60306553911205</v>
+      </c>
+      <c r="H76" s="31" t="n">
+        <f aca="false">AVERAGE(F76,G76)</f>
+        <v>2.77542174157458</v>
       </c>
     </row>
   </sheetData>

--- a/syncronisation/Cash flow.xlsx
+++ b/syncronisation/Cash flow.xlsx
@@ -38,26 +38,32 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">'Project 30'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Project 30'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Project 30'!$B$1:$B$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Project 30'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">'Project 31'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">'Project 31'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Project 31'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Project 31'!$B$1:$B$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Project 31'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Actual 6'!$B$5:$B$521</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Actual 6'!$B$5:$B$521</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Actual 6'!$B$5:$B$521</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Apartment!$A$1:$C$451</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Borrowing!$A$1:$K$19</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">'Project 32'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">'Project 32'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Project 32'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Project 32'!$B$1:$B$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Project 32'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0" vbProcedure="false">'Project 33'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0" vbProcedure="false">'Project 33'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Project 33'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Project 33'!$B$1:$B$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Project 33'!$B$1:$B$30</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0" vbProcedure="false">'Project 34'!$B$1:$B$12</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0" vbProcedure="false">'Project 34'!$B$1:$B$12</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Project 34'!$B$1:$B$12</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Project 34'!$B$1:$B$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Project 34'!$B$1:$B$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1516,7 +1522,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="348">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -2983,9 +2989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361080</xdr:colOff>
+      <xdr:colOff>360720</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2995,7 +3001,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12733920" cy="9524160"/>
+          <a:ext cx="12809880" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3028,9 +3034,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361080</xdr:colOff>
+      <xdr:colOff>360720</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3040,7 +3046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12733920" cy="9524160"/>
+          <a:ext cx="12809880" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3073,9 +3079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361080</xdr:colOff>
+      <xdr:colOff>360720</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3085,7 +3091,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12733920" cy="9524160"/>
+          <a:ext cx="12809880" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3118,9 +3124,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361080</xdr:colOff>
+      <xdr:colOff>360720</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3130,7 +3136,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12733920" cy="9524160"/>
+          <a:ext cx="12809880" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3163,9 +3169,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361080</xdr:colOff>
+      <xdr:colOff>360720</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3175,7 +3181,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12733920" cy="9524160"/>
+          <a:ext cx="12809880" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3225,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
+      <xdr:colOff>398880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3237,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12724560" cy="9524160"/>
+          <a:ext cx="12800160" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3270,9 +3276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
+      <xdr:colOff>398880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3282,7 +3288,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12724560" cy="9524160"/>
+          <a:ext cx="12800160" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3315,9 +3321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
+      <xdr:colOff>398880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3327,7 +3333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12724560" cy="9524160"/>
+          <a:ext cx="12800160" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3360,9 +3366,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
+      <xdr:colOff>398880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3372,7 +3378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12724560" cy="9524160"/>
+          <a:ext cx="12800160" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3405,9 +3411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
+      <xdr:colOff>398880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3417,7 +3423,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12724560" cy="9524160"/>
+          <a:ext cx="12800160" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3450,9 +3456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
+      <xdr:colOff>398880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3462,7 +3468,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12724560" cy="9524160"/>
+          <a:ext cx="12800160" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3495,9 +3501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
+      <xdr:colOff>398880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3507,7 +3513,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12724560" cy="9524160"/>
+          <a:ext cx="12800160" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3545,9 +3551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>428040</xdr:colOff>
+      <xdr:colOff>427680</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3557,7 +3563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12724560" cy="9524160"/>
+          <a:ext cx="12809880" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3595,9 +3601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>256320</xdr:colOff>
+      <xdr:colOff>255960</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3607,7 +3613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12753000" cy="9524160"/>
+          <a:ext cx="12819240" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3640,9 +3646,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>256320</xdr:colOff>
+      <xdr:colOff>255960</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3652,7 +3658,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12753000" cy="9524160"/>
+          <a:ext cx="12819240" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3685,9 +3691,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>256320</xdr:colOff>
+      <xdr:colOff>255960</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3697,7 +3703,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12753000" cy="9524160"/>
+          <a:ext cx="12819240" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3735,9 +3741,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>56520</xdr:colOff>
+      <xdr:colOff>56160</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3747,7 +3753,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12810240" cy="9524160"/>
+          <a:ext cx="12867120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3785,9 +3791,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>361080</xdr:colOff>
+      <xdr:colOff>360720</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3797,7 +3803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12676680" cy="9524160"/>
+          <a:ext cx="12705120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3830,9 +3836,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>361080</xdr:colOff>
+      <xdr:colOff>360720</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3842,7 +3848,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12676680" cy="9524160"/>
+          <a:ext cx="12705120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3875,9 +3881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>361080</xdr:colOff>
+      <xdr:colOff>360720</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3887,7 +3893,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12676680" cy="9524160"/>
+          <a:ext cx="12705120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3933,9 +3939,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>761040</xdr:colOff>
+      <xdr:colOff>760680</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3945,7 +3951,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12076560" cy="10095480"/>
+          <a:ext cx="12114360" cy="10095120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3978,9 +3984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>761040</xdr:colOff>
+      <xdr:colOff>760680</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3990,7 +3996,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12076560" cy="10095480"/>
+          <a:ext cx="12114360" cy="10095120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4033,10 +4039,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.497975708502"/>
@@ -8705,13 +8711,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="41" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.9230769230769"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
@@ -10694,8 +10700,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="14" width="11.4615384615385"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="14" width="0"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.497975708502"/>
@@ -11363,8 +11369,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="14" width="11.4615384615385"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="14" width="0"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.497975708502"/>
@@ -12101,8 +12107,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="14" width="11.4615384615385"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="14" width="0"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.497975708502"/>
@@ -12824,14 +12830,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -17555,13 +17561,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -21286,17 +21292,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -25974,19 +25980,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -31528,14 +31534,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="14" width="11.4615384615385"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="14" width="0"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="12.748987854251"/>
     <col collapsed="false" hidden="true" max="6" min="6" style="14" width="0"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="14" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.2834008097166"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.497975708502"/>
@@ -32270,8 +32276,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="14" width="11.4615384615385"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="14" width="0"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.497975708502"/>
@@ -32922,7 +32928,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="37.5991902834008"/>
     <col collapsed="false" hidden="false" max="11" min="3" style="30" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
@@ -42385,22 +42391,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
+      <selection pane="bottomLeft" activeCell="F78" activeCellId="0" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -42437,21 +42443,21 @@
       <c r="B2" s="7"/>
       <c r="C2" s="34" t="n">
         <f aca="false">SUM(C3:C936)</f>
-        <v>1747744.3</v>
+        <v>1749364.3</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="34" t="n">
         <f aca="false">SUM(F3:F936)</f>
-        <v>28454.8810822195</v>
+        <v>28479.1324593302</v>
       </c>
       <c r="G2" s="34" t="n">
         <f aca="false">SUM(G3:G936)</f>
-        <v>25349.9219976345</v>
+        <v>25371.3265208862</v>
       </c>
       <c r="H2" s="34" t="n">
         <f aca="false">SUM(H3:H936)</f>
-        <v>26902.401539927</v>
+        <v>26925.2294901082</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44591,7 +44597,7 @@
         <v>316</v>
       </c>
       <c r="C76" s="31" t="n">
-        <f aca="false"> 35 + 36 + 36 + 90</f>
+        <f aca="false">35 + 36 + 36 + 90</f>
         <v>197</v>
       </c>
       <c r="D76" s="0" t="n">
@@ -44611,6 +44617,64 @@
       <c r="H76" s="31" t="n">
         <f aca="false">AVERAGE(F76,G76)</f>
         <v>2.77542174157458</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="40" t="n">
+        <v>43439</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C77" s="31" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>66.83</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>75.68</v>
+      </c>
+      <c r="F77" s="31" t="n">
+        <f aca="false">C77 / D77</f>
+        <v>18.2552745772857</v>
+      </c>
+      <c r="G77" s="31" t="n">
+        <f aca="false">C77 / E77</f>
+        <v>16.1205073995772</v>
+      </c>
+      <c r="H77" s="31" t="n">
+        <f aca="false">AVERAGE(F77,G77)</f>
+        <v>17.1878909884314</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="40" t="n">
+        <v>43439</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" s="31" t="n">
+        <v>400</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>66.71</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="F78" s="31" t="n">
+        <f aca="false">C78 / D78</f>
+        <v>5.99610253335332</v>
+      </c>
+      <c r="G78" s="31" t="n">
+        <f aca="false">C78 / E78</f>
+        <v>5.28401585204756</v>
+      </c>
+      <c r="H78" s="31" t="n">
+        <f aca="false">AVERAGE(F78,G78)</f>
+        <v>5.64005919270044</v>
       </c>
     </row>
   </sheetData>
